--- a/VerveStacks_USA_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_USA_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_USA_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FF91688-335B-40A9-BE82-87A1B4B1AA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A74BFA8-BFA8-4A55-9CAE-5080F36628F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1826,11 +1826,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -2011,7 +2010,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2037,11 +2036,9 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Heading 3" xfId="2" builtinId="18"/>
@@ -2082,7 +2079,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7AAC795-EF7B-CB6F-F65C-7364BF74C3D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E879FAD5-4682-7A55-19B8-3DD587692ADA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2137,7 +2134,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A0CFC10-0020-7023-58B7-36221AF0F3EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F47CEB06-A4D3-DF5A-47FA-0108D9CE91F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3235,7 +3232,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F946E9C9-BF3D-450A-B998-BFB5670F21B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B526B37-652F-4B29-BA73-BC261BAA6858}">
   <dimension ref="A1:AE288"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3346,8 +3343,8 @@
       <c r="D4" s="22">
         <v>0</v>
       </c>
-      <c r="E4" s="23">
-        <v>0</v>
+      <c r="E4" s="22">
+        <v>1</v>
       </c>
       <c r="H4" s="20" t="s">
         <v>218</v>
@@ -3402,52 +3399,52 @@
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="24">
         <v>2.5</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="25">
         <v>0</v>
       </c>
-      <c r="E5" s="27">
-        <v>0</v>
-      </c>
-      <c r="H5" s="24" t="s">
+      <c r="E5" s="25">
+        <v>1</v>
+      </c>
+      <c r="H5" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="24">
         <v>0.10741299365826885</v>
       </c>
-      <c r="K5" s="24" t="s">
+      <c r="K5" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="L5" s="24" t="s">
+      <c r="L5" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="P5" s="24" t="s">
+      <c r="P5" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="Q5" s="24" t="s">
+      <c r="Q5" s="23" t="s">
         <v>272</v>
       </c>
-      <c r="R5" s="24" t="s">
+      <c r="R5" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="U5" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V5" s="24" t="s">
+      <c r="U5" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V5" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="W5" s="24" t="s">
+      <c r="W5" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="X5" s="24" t="s">
+      <c r="X5" s="23" t="s">
         <v>286</v>
       </c>
       <c r="AA5" t="s">
@@ -3476,8 +3473,8 @@
       <c r="D6" s="22">
         <v>0</v>
       </c>
-      <c r="E6" s="23">
-        <v>0</v>
+      <c r="E6" s="22">
+        <v>1</v>
       </c>
       <c r="H6" s="20" t="s">
         <v>222</v>
@@ -3517,52 +3514,52 @@
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="24">
         <v>2</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="25">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E7" s="27">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="H7" s="24" t="s">
+      <c r="E7" s="25">
+        <v>0.99994000000000005</v>
+      </c>
+      <c r="H7" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="24">
         <v>6.8673134927520169E-2</v>
       </c>
-      <c r="K7" s="24" t="s">
+      <c r="K7" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="L7" s="24" t="s">
+      <c r="L7" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="P7" s="24" t="s">
+      <c r="P7" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="Q7" s="24" t="s">
+      <c r="Q7" s="23" t="s">
         <v>274</v>
       </c>
-      <c r="R7" s="24" t="s">
+      <c r="R7" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="U7" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V7" s="24" t="s">
+      <c r="U7" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V7" s="23" t="s">
         <v>289</v>
       </c>
-      <c r="W7" s="24" t="s">
+      <c r="W7" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="X7" s="24" t="s">
+      <c r="X7" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -3576,8 +3573,8 @@
       <c r="D8" s="22">
         <v>0</v>
       </c>
-      <c r="E8" s="23">
-        <v>0</v>
+      <c r="E8" s="22">
+        <v>1</v>
       </c>
       <c r="H8" s="20" t="s">
         <v>224</v>
@@ -3617,52 +3614,52 @@
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="24">
         <v>2</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="25">
         <v>0</v>
       </c>
-      <c r="E9" s="27">
-        <v>0</v>
-      </c>
-      <c r="H9" s="24" t="s">
+      <c r="E9" s="25">
+        <v>1</v>
+      </c>
+      <c r="H9" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="I9" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="J9" s="25">
+      <c r="J9" s="24">
         <v>5.5536041788311376E-2</v>
       </c>
-      <c r="K9" s="24" t="s">
+      <c r="K9" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="L9" s="24" t="s">
+      <c r="L9" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="P9" s="24" t="s">
+      <c r="P9" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="Q9" s="24" t="s">
+      <c r="Q9" s="23" t="s">
         <v>276</v>
       </c>
-      <c r="R9" s="24" t="s">
+      <c r="R9" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="U9" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V9" s="24" t="s">
+      <c r="U9" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V9" s="23" t="s">
         <v>291</v>
       </c>
-      <c r="W9" s="24" t="s">
+      <c r="W9" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="X9" s="24" t="s">
+      <c r="X9" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -3676,8 +3673,8 @@
       <c r="D10" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E10" s="23">
-        <v>6.0000000000000002E-5</v>
+      <c r="E10" s="22">
+        <v>0.99994000000000005</v>
       </c>
       <c r="H10" s="20" t="s">
         <v>226</v>
@@ -3717,52 +3714,52 @@
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="24">
         <v>2</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="25">
         <v>0</v>
       </c>
-      <c r="E11" s="27">
-        <v>0</v>
-      </c>
-      <c r="H11" s="24" t="s">
+      <c r="E11" s="25">
+        <v>1</v>
+      </c>
+      <c r="H11" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="I11" s="24" t="s">
+      <c r="I11" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="J11" s="25">
+      <c r="J11" s="24">
         <v>9.8684675708678102E-2</v>
       </c>
-      <c r="K11" s="24" t="s">
+      <c r="K11" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="L11" s="24" t="s">
+      <c r="L11" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="P11" s="24" t="s">
+      <c r="P11" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="Q11" s="24" t="s">
+      <c r="Q11" s="23" t="s">
         <v>278</v>
       </c>
-      <c r="R11" s="24" t="s">
+      <c r="R11" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="U11" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V11" s="24" t="s">
+      <c r="U11" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V11" s="23" t="s">
         <v>293</v>
       </c>
-      <c r="W11" s="24" t="s">
+      <c r="W11" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="X11" s="24" t="s">
+      <c r="X11" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -3776,8 +3773,8 @@
       <c r="D12" s="22">
         <v>0</v>
       </c>
-      <c r="E12" s="23">
-        <v>0</v>
+      <c r="E12" s="22">
+        <v>1</v>
       </c>
       <c r="H12" s="20" t="s">
         <v>228</v>
@@ -3817,52 +3814,52 @@
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="24">
         <v>2</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="25">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E13" s="27">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="H13" s="24" t="s">
+      <c r="E13" s="25">
+        <v>0.99994000000000005</v>
+      </c>
+      <c r="H13" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="I13" s="24" t="s">
+      <c r="I13" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="J13" s="25">
+      <c r="J13" s="24">
         <v>7.6524827126991629E-2</v>
       </c>
-      <c r="K13" s="24" t="s">
+      <c r="K13" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="L13" s="24" t="s">
+      <c r="L13" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="P13" s="24" t="s">
+      <c r="P13" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="Q13" s="24" t="s">
+      <c r="Q13" s="23" t="s">
         <v>280</v>
       </c>
-      <c r="R13" s="24" t="s">
+      <c r="R13" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="U13" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V13" s="24" t="s">
+      <c r="U13" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V13" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="W13" s="24" t="s">
+      <c r="W13" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="X13" s="24" t="s">
+      <c r="X13" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -3876,8 +3873,8 @@
       <c r="D14" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E14" s="23">
-        <v>6.0000000000000002E-5</v>
+      <c r="E14" s="22">
+        <v>0.99994000000000005</v>
       </c>
       <c r="H14" s="20" t="s">
         <v>230</v>
@@ -3917,52 +3914,52 @@
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="24">
         <v>2.5730599999999999</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15" s="25">
         <v>0</v>
       </c>
-      <c r="E15" s="27">
-        <v>0</v>
-      </c>
-      <c r="H15" s="24" t="s">
+      <c r="E15" s="25">
+        <v>1</v>
+      </c>
+      <c r="H15" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="I15" s="24" t="s">
+      <c r="I15" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="J15" s="25">
+      <c r="J15" s="24">
         <v>2.5787856787443129E-2</v>
       </c>
-      <c r="K15" s="24" t="s">
+      <c r="K15" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="L15" s="24" t="s">
+      <c r="L15" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="P15" s="24" t="s">
+      <c r="P15" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="Q15" s="24" t="s">
+      <c r="Q15" s="23" t="s">
         <v>282</v>
       </c>
-      <c r="R15" s="24" t="s">
+      <c r="R15" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="U15" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V15" s="24" t="s">
+      <c r="U15" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V15" s="23" t="s">
         <v>297</v>
       </c>
-      <c r="W15" s="24" t="s">
+      <c r="W15" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="X15" s="24" t="s">
+      <c r="X15" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -3976,8 +3973,8 @@
       <c r="D16" s="22">
         <v>0</v>
       </c>
-      <c r="E16" s="23">
-        <v>0</v>
+      <c r="E16" s="22">
+        <v>1</v>
       </c>
       <c r="H16" s="20" t="s">
         <v>232</v>
@@ -4017,52 +4014,52 @@
       </c>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="24">
         <v>2</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="25">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E17" s="27">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="H17" s="24" t="s">
+      <c r="E17" s="25">
+        <v>0.99994000000000005</v>
+      </c>
+      <c r="H17" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="I17" s="24" t="s">
+      <c r="I17" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="J17" s="25">
+      <c r="J17" s="24">
         <v>0.10741299365826885</v>
       </c>
-      <c r="K17" s="24" t="s">
+      <c r="K17" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="L17" s="24" t="s">
+      <c r="L17" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="P17" s="24" t="s">
+      <c r="P17" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="Q17" s="24" t="s">
+      <c r="Q17" s="23" t="s">
         <v>272</v>
       </c>
-      <c r="R17" s="24" t="s">
+      <c r="R17" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="U17" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V17" s="24" t="s">
+      <c r="U17" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V17" s="23" t="s">
         <v>299</v>
       </c>
-      <c r="W17" s="24" t="s">
+      <c r="W17" s="23" t="s">
         <v>300</v>
       </c>
-      <c r="X17" s="24" t="s">
+      <c r="X17" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -4076,8 +4073,8 @@
       <c r="D18" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E18" s="23">
-        <v>6.0000000000000002E-5</v>
+      <c r="E18" s="22">
+        <v>0.99994000000000005</v>
       </c>
       <c r="H18" s="20" t="s">
         <v>234</v>
@@ -4117,52 +4114,52 @@
       </c>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="24">
         <v>2</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="25">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E19" s="27">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="H19" s="24" t="s">
+      <c r="E19" s="25">
+        <v>0.99994000000000005</v>
+      </c>
+      <c r="H19" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="I19" s="24" t="s">
+      <c r="I19" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="J19" s="25">
+      <c r="J19" s="24">
         <v>6.8673134927520169E-2</v>
       </c>
-      <c r="K19" s="24" t="s">
+      <c r="K19" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="L19" s="24" t="s">
+      <c r="L19" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="P19" s="24" t="s">
+      <c r="P19" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="Q19" s="24" t="s">
+      <c r="Q19" s="23" t="s">
         <v>274</v>
       </c>
-      <c r="R19" s="24" t="s">
+      <c r="R19" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="U19" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V19" s="24" t="s">
+      <c r="U19" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V19" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="W19" s="24" t="s">
+      <c r="W19" s="23" t="s">
         <v>300</v>
       </c>
-      <c r="X19" s="24" t="s">
+      <c r="X19" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -4176,8 +4173,8 @@
       <c r="D20" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E20" s="23">
-        <v>6.0000000000000002E-5</v>
+      <c r="E20" s="22">
+        <v>0.99994000000000005</v>
       </c>
       <c r="H20" s="20" t="s">
         <v>236</v>
@@ -4217,52 +4214,52 @@
       </c>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="25">
+      <c r="C21" s="24">
         <v>2</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D21" s="25">
         <v>0</v>
       </c>
-      <c r="E21" s="27">
-        <v>0</v>
-      </c>
-      <c r="H21" s="24" t="s">
+      <c r="E21" s="25">
+        <v>1</v>
+      </c>
+      <c r="H21" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="I21" s="24" t="s">
+      <c r="I21" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="J21" s="25">
+      <c r="J21" s="24">
         <v>5.5536041788311376E-2</v>
       </c>
-      <c r="K21" s="24" t="s">
+      <c r="K21" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="L21" s="24" t="s">
+      <c r="L21" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="P21" s="24" t="s">
+      <c r="P21" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="Q21" s="24" t="s">
+      <c r="Q21" s="23" t="s">
         <v>276</v>
       </c>
-      <c r="R21" s="24" t="s">
+      <c r="R21" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="U21" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V21" s="24" t="s">
+      <c r="U21" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V21" s="23" t="s">
         <v>304</v>
       </c>
-      <c r="W21" s="24" t="s">
+      <c r="W21" s="23" t="s">
         <v>300</v>
       </c>
-      <c r="X21" s="24" t="s">
+      <c r="X21" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -4276,8 +4273,8 @@
       <c r="D22" s="22">
         <v>0</v>
       </c>
-      <c r="E22" s="23">
-        <v>0</v>
+      <c r="E22" s="22">
+        <v>1</v>
       </c>
       <c r="H22" s="20" t="s">
         <v>238</v>
@@ -4317,52 +4314,52 @@
       </c>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="C23" s="25">
+      <c r="C23" s="24">
         <v>1.4735820623172182</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D23" s="25">
         <v>0</v>
       </c>
-      <c r="E23" s="27">
-        <v>0</v>
-      </c>
-      <c r="H23" s="24" t="s">
+      <c r="E23" s="25">
+        <v>1</v>
+      </c>
+      <c r="H23" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="I23" s="24" t="s">
+      <c r="I23" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="J23" s="25">
+      <c r="J23" s="24">
         <v>9.8684675708678102E-2</v>
       </c>
-      <c r="K23" s="24" t="s">
+      <c r="K23" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="L23" s="24" t="s">
+      <c r="L23" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="P23" s="24" t="s">
+      <c r="P23" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="Q23" s="24" t="s">
+      <c r="Q23" s="23" t="s">
         <v>278</v>
       </c>
-      <c r="R23" s="24" t="s">
+      <c r="R23" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="U23" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V23" s="24" t="s">
+      <c r="U23" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V23" s="23" t="s">
         <v>306</v>
       </c>
-      <c r="W23" s="24" t="s">
+      <c r="W23" s="23" t="s">
         <v>300</v>
       </c>
-      <c r="X23" s="24" t="s">
+      <c r="X23" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -4376,8 +4373,8 @@
       <c r="D24" s="22">
         <v>0</v>
       </c>
-      <c r="E24" s="23">
-        <v>0</v>
+      <c r="E24" s="22">
+        <v>1</v>
       </c>
       <c r="H24" s="20" t="s">
         <v>240</v>
@@ -4417,52 +4414,52 @@
       </c>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="C25" s="25">
+      <c r="C25" s="24">
         <v>3.4314818718445164</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D25" s="25">
         <v>0</v>
       </c>
-      <c r="E25" s="27">
-        <v>0</v>
-      </c>
-      <c r="H25" s="24" t="s">
+      <c r="E25" s="25">
+        <v>1</v>
+      </c>
+      <c r="H25" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="I25" s="24" t="s">
+      <c r="I25" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="J25" s="25">
+      <c r="J25" s="24">
         <v>7.6524827126991629E-2</v>
       </c>
-      <c r="K25" s="24" t="s">
+      <c r="K25" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="L25" s="24" t="s">
+      <c r="L25" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="P25" s="24" t="s">
+      <c r="P25" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="Q25" s="24" t="s">
+      <c r="Q25" s="23" t="s">
         <v>280</v>
       </c>
-      <c r="R25" s="24" t="s">
+      <c r="R25" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="U25" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V25" s="24" t="s">
+      <c r="U25" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V25" s="23" t="s">
         <v>308</v>
       </c>
-      <c r="W25" s="24" t="s">
+      <c r="W25" s="23" t="s">
         <v>300</v>
       </c>
-      <c r="X25" s="24" t="s">
+      <c r="X25" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -4476,8 +4473,8 @@
       <c r="D26" s="22">
         <v>0</v>
       </c>
-      <c r="E26" s="23">
-        <v>0</v>
+      <c r="E26" s="22">
+        <v>1</v>
       </c>
       <c r="H26" s="20" t="s">
         <v>242</v>
@@ -4517,52 +4514,52 @@
       </c>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="C27" s="25">
+      <c r="C27" s="24">
         <v>1.4197548642487033E-8</v>
       </c>
-      <c r="D27" s="26">
+      <c r="D27" s="25">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E27" s="27">
-        <v>2.4000000000000001E-4</v>
-      </c>
-      <c r="H27" s="24" t="s">
+      <c r="E27" s="25">
+        <v>0.99975999999999998</v>
+      </c>
+      <c r="H27" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="I27" s="24" t="s">
+      <c r="I27" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="J27" s="25">
+      <c r="J27" s="24">
         <v>2.5787856787443129E-2</v>
       </c>
-      <c r="K27" s="24" t="s">
+      <c r="K27" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="L27" s="24" t="s">
+      <c r="L27" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="P27" s="24" t="s">
+      <c r="P27" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="Q27" s="24" t="s">
+      <c r="Q27" s="23" t="s">
         <v>282</v>
       </c>
-      <c r="R27" s="24" t="s">
+      <c r="R27" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="U27" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V27" s="24" t="s">
+      <c r="U27" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V27" s="23" t="s">
         <v>310</v>
       </c>
-      <c r="W27" s="24" t="s">
+      <c r="W27" s="23" t="s">
         <v>300</v>
       </c>
-      <c r="X27" s="24" t="s">
+      <c r="X27" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -4576,8 +4573,8 @@
       <c r="D28" s="22">
         <v>0</v>
       </c>
-      <c r="E28" s="23">
-        <v>0</v>
+      <c r="E28" s="22">
+        <v>1</v>
       </c>
       <c r="H28" s="20" t="s">
         <v>244</v>
@@ -4617,52 +4614,52 @@
       </c>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="C29" s="25">
+      <c r="C29" s="24">
         <v>7.6451097890523876</v>
       </c>
-      <c r="D29" s="26">
+      <c r="D29" s="25">
         <v>0</v>
       </c>
-      <c r="E29" s="27">
-        <v>0</v>
-      </c>
-      <c r="H29" s="24" t="s">
+      <c r="E29" s="25">
+        <v>1</v>
+      </c>
+      <c r="H29" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="I29" s="24" t="s">
+      <c r="I29" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="J29" s="25">
+      <c r="J29" s="24">
         <v>0.10741299365826885</v>
       </c>
-      <c r="K29" s="24" t="s">
+      <c r="K29" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="L29" s="24" t="s">
+      <c r="L29" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="P29" s="24" t="s">
+      <c r="P29" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="Q29" s="24" t="s">
+      <c r="Q29" s="23" t="s">
         <v>272</v>
       </c>
-      <c r="R29" s="24" t="s">
+      <c r="R29" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="U29" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V29" s="24" t="s">
+      <c r="U29" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V29" s="23" t="s">
         <v>312</v>
       </c>
-      <c r="W29" s="24" t="s">
+      <c r="W29" s="23" t="s">
         <v>300</v>
       </c>
-      <c r="X29" s="24" t="s">
+      <c r="X29" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -4676,8 +4673,8 @@
       <c r="D30" s="22">
         <v>9.9</v>
       </c>
-      <c r="E30" s="23">
-        <v>5.4000000000000001E-4</v>
+      <c r="E30" s="22">
+        <v>0.99946000000000002</v>
       </c>
       <c r="H30" s="20" t="s">
         <v>246</v>
@@ -4717,52 +4714,52 @@
       </c>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="C31" s="25">
+      <c r="C31" s="24">
         <v>0.40340621043566449</v>
       </c>
-      <c r="D31" s="26">
+      <c r="D31" s="25">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E31" s="27">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="H31" s="24" t="s">
+      <c r="E31" s="25">
+        <v>0.99994000000000005</v>
+      </c>
+      <c r="H31" s="23" t="s">
         <v>247</v>
       </c>
-      <c r="I31" s="24" t="s">
+      <c r="I31" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="J31" s="25">
+      <c r="J31" s="24">
         <v>6.8673134927520169E-2</v>
       </c>
-      <c r="K31" s="24" t="s">
+      <c r="K31" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="L31" s="24" t="s">
+      <c r="L31" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="P31" s="24" t="s">
+      <c r="P31" s="23" t="s">
         <v>247</v>
       </c>
-      <c r="Q31" s="24" t="s">
+      <c r="Q31" s="23" t="s">
         <v>274</v>
       </c>
-      <c r="R31" s="24" t="s">
+      <c r="R31" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="U31" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V31" s="24" t="s">
+      <c r="U31" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V31" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="W31" s="24" t="s">
+      <c r="W31" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="X31" s="24" t="s">
+      <c r="X31" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -4776,8 +4773,8 @@
       <c r="D32" s="22">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E32" s="23">
-        <v>1.2E-4</v>
+      <c r="E32" s="22">
+        <v>0.99987999999999999</v>
       </c>
       <c r="H32" s="20" t="s">
         <v>248</v>
@@ -4817,52 +4814,52 @@
       </c>
     </row>
     <row r="33" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="C33" s="25">
+      <c r="C33" s="24">
         <v>1.6732282380660151</v>
       </c>
-      <c r="D33" s="26">
+      <c r="D33" s="25">
         <v>0</v>
       </c>
-      <c r="E33" s="27">
-        <v>0</v>
-      </c>
-      <c r="H33" s="24" t="s">
+      <c r="E33" s="25">
+        <v>1</v>
+      </c>
+      <c r="H33" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="I33" s="24" t="s">
+      <c r="I33" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="J33" s="25">
+      <c r="J33" s="24">
         <v>5.5536041788311376E-2</v>
       </c>
-      <c r="K33" s="24" t="s">
+      <c r="K33" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="L33" s="24" t="s">
+      <c r="L33" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="P33" s="24" t="s">
+      <c r="P33" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="Q33" s="24" t="s">
+      <c r="Q33" s="23" t="s">
         <v>276</v>
       </c>
-      <c r="R33" s="24" t="s">
+      <c r="R33" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="U33" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V33" s="24" t="s">
+      <c r="U33" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V33" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="W33" s="24" t="s">
+      <c r="W33" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="X33" s="24" t="s">
+      <c r="X33" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -4876,8 +4873,8 @@
       <c r="D34" s="22">
         <v>0</v>
       </c>
-      <c r="E34" s="23">
-        <v>0</v>
+      <c r="E34" s="22">
+        <v>1</v>
       </c>
       <c r="H34" s="20" t="s">
         <v>250</v>
@@ -4917,52 +4914,52 @@
       </c>
     </row>
     <row r="35" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="C35" s="25">
+      <c r="C35" s="24">
         <v>1.9171213370876656</v>
       </c>
-      <c r="D35" s="26">
+      <c r="D35" s="25">
         <v>0</v>
       </c>
-      <c r="E35" s="27">
-        <v>0</v>
-      </c>
-      <c r="H35" s="24" t="s">
+      <c r="E35" s="25">
+        <v>1</v>
+      </c>
+      <c r="H35" s="23" t="s">
         <v>251</v>
       </c>
-      <c r="I35" s="24" t="s">
+      <c r="I35" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="J35" s="25">
+      <c r="J35" s="24">
         <v>9.8684675708678102E-2</v>
       </c>
-      <c r="K35" s="24" t="s">
+      <c r="K35" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="L35" s="24" t="s">
+      <c r="L35" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="P35" s="24" t="s">
+      <c r="P35" s="23" t="s">
         <v>251</v>
       </c>
-      <c r="Q35" s="24" t="s">
+      <c r="Q35" s="23" t="s">
         <v>278</v>
       </c>
-      <c r="R35" s="24" t="s">
+      <c r="R35" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="U35" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V35" s="24" t="s">
+      <c r="U35" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V35" s="23" t="s">
         <v>319</v>
       </c>
-      <c r="W35" s="24" t="s">
+      <c r="W35" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="X35" s="24" t="s">
+      <c r="X35" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -4976,8 +4973,8 @@
       <c r="D36" s="22">
         <v>0</v>
       </c>
-      <c r="E36" s="23">
-        <v>0</v>
+      <c r="E36" s="22">
+        <v>1</v>
       </c>
       <c r="H36" s="20" t="s">
         <v>252</v>
@@ -5017,52 +5014,52 @@
       </c>
     </row>
     <row r="37" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="C37" s="25">
+      <c r="C37" s="24">
         <v>1.8649502216727951</v>
       </c>
-      <c r="D37" s="26">
+      <c r="D37" s="25">
         <v>0</v>
       </c>
-      <c r="E37" s="27">
-        <v>0</v>
-      </c>
-      <c r="H37" s="24" t="s">
+      <c r="E37" s="25">
+        <v>1</v>
+      </c>
+      <c r="H37" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="I37" s="24" t="s">
+      <c r="I37" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="J37" s="25">
+      <c r="J37" s="24">
         <v>7.6524827126991629E-2</v>
       </c>
-      <c r="K37" s="24" t="s">
+      <c r="K37" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="L37" s="24" t="s">
+      <c r="L37" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="P37" s="24" t="s">
+      <c r="P37" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="Q37" s="24" t="s">
+      <c r="Q37" s="23" t="s">
         <v>280</v>
       </c>
-      <c r="R37" s="24" t="s">
+      <c r="R37" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="U37" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V37" s="24" t="s">
+      <c r="U37" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V37" s="23" t="s">
         <v>321</v>
       </c>
-      <c r="W37" s="24" t="s">
+      <c r="W37" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="X37" s="24" t="s">
+      <c r="X37" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -5076,8 +5073,8 @@
       <c r="D38" s="22">
         <v>0</v>
       </c>
-      <c r="E38" s="23">
-        <v>0</v>
+      <c r="E38" s="22">
+        <v>1</v>
       </c>
       <c r="H38" s="20" t="s">
         <v>254</v>
@@ -5117,52 +5114,52 @@
       </c>
     </row>
     <row r="39" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="C39" s="25">
+      <c r="C39" s="24">
         <v>4.1595341906067818</v>
       </c>
-      <c r="D39" s="26">
+      <c r="D39" s="25">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E39" s="27">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="H39" s="24" t="s">
+      <c r="E39" s="25">
+        <v>0.99994000000000005</v>
+      </c>
+      <c r="H39" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="I39" s="24" t="s">
+      <c r="I39" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="J39" s="25">
+      <c r="J39" s="24">
         <v>2.5787856787443129E-2</v>
       </c>
-      <c r="K39" s="24" t="s">
+      <c r="K39" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="L39" s="24" t="s">
+      <c r="L39" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="P39" s="24" t="s">
+      <c r="P39" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="Q39" s="24" t="s">
+      <c r="Q39" s="23" t="s">
         <v>282</v>
       </c>
-      <c r="R39" s="24" t="s">
+      <c r="R39" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="U39" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V39" s="24" t="s">
+      <c r="U39" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V39" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="W39" s="24" t="s">
+      <c r="W39" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="X39" s="24" t="s">
+      <c r="X39" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -5176,8 +5173,8 @@
       <c r="D40" s="22">
         <v>0</v>
       </c>
-      <c r="E40" s="23">
-        <v>0</v>
+      <c r="E40" s="22">
+        <v>1</v>
       </c>
       <c r="H40" s="20" t="s">
         <v>256</v>
@@ -5217,52 +5214,52 @@
       </c>
     </row>
     <row r="41" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="C41" s="25">
+      <c r="C41" s="24">
         <v>0.3918265089260341</v>
       </c>
-      <c r="D41" s="26">
+      <c r="D41" s="25">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E41" s="27">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="H41" s="24" t="s">
+      <c r="E41" s="25">
+        <v>0.99994000000000005</v>
+      </c>
+      <c r="H41" s="23" t="s">
         <v>257</v>
       </c>
-      <c r="I41" s="24" t="s">
+      <c r="I41" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="J41" s="25">
+      <c r="J41" s="24">
         <v>0.10741299365826885</v>
       </c>
-      <c r="K41" s="24" t="s">
+      <c r="K41" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="L41" s="24" t="s">
+      <c r="L41" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="P41" s="24" t="s">
+      <c r="P41" s="23" t="s">
         <v>257</v>
       </c>
-      <c r="Q41" s="24" t="s">
+      <c r="Q41" s="23" t="s">
         <v>272</v>
       </c>
-      <c r="R41" s="24" t="s">
+      <c r="R41" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="U41" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V41" s="24" t="s">
+      <c r="U41" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V41" s="23" t="s">
         <v>325</v>
       </c>
-      <c r="W41" s="24" t="s">
+      <c r="W41" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="X41" s="24" t="s">
+      <c r="X41" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -5276,8 +5273,8 @@
       <c r="D42" s="22">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E42" s="23">
-        <v>1.2E-4</v>
+      <c r="E42" s="22">
+        <v>0.99987999999999999</v>
       </c>
       <c r="H42" s="20" t="s">
         <v>258</v>
@@ -5317,52 +5314,52 @@
       </c>
     </row>
     <row r="43" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="C43" s="25">
+      <c r="C43" s="24">
         <v>0.22935064666847305</v>
       </c>
-      <c r="D43" s="26">
+      <c r="D43" s="25">
         <v>0</v>
       </c>
-      <c r="E43" s="27">
-        <v>0</v>
-      </c>
-      <c r="H43" s="24" t="s">
+      <c r="E43" s="25">
+        <v>1</v>
+      </c>
+      <c r="H43" s="23" t="s">
         <v>259</v>
       </c>
-      <c r="I43" s="24" t="s">
+      <c r="I43" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="J43" s="25">
+      <c r="J43" s="24">
         <v>6.8673134927520169E-2</v>
       </c>
-      <c r="K43" s="24" t="s">
+      <c r="K43" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="L43" s="24" t="s">
+      <c r="L43" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="P43" s="24" t="s">
+      <c r="P43" s="23" t="s">
         <v>259</v>
       </c>
-      <c r="Q43" s="24" t="s">
+      <c r="Q43" s="23" t="s">
         <v>274</v>
       </c>
-      <c r="R43" s="24" t="s">
+      <c r="R43" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="U43" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V43" s="24" t="s">
+      <c r="U43" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V43" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="W43" s="24" t="s">
+      <c r="W43" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="X43" s="24" t="s">
+      <c r="X43" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -5376,8 +5373,8 @@
       <c r="D44" s="22">
         <v>0</v>
       </c>
-      <c r="E44" s="23">
-        <v>0</v>
+      <c r="E44" s="22">
+        <v>1</v>
       </c>
       <c r="H44" s="20" t="s">
         <v>260</v>
@@ -5417,52 +5414,52 @@
       </c>
     </row>
     <row r="45" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B45" s="24" t="s">
+      <c r="B45" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="C45" s="25">
+      <c r="C45" s="24">
         <v>7.1186258563336576E-3</v>
       </c>
-      <c r="D45" s="26">
+      <c r="D45" s="25">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E45" s="27">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="H45" s="24" t="s">
+      <c r="E45" s="25">
+        <v>0.99994000000000005</v>
+      </c>
+      <c r="H45" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="I45" s="24" t="s">
+      <c r="I45" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="J45" s="25">
+      <c r="J45" s="24">
         <v>5.5536041788311376E-2</v>
       </c>
-      <c r="K45" s="24" t="s">
+      <c r="K45" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="L45" s="24" t="s">
+      <c r="L45" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="P45" s="24" t="s">
+      <c r="P45" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="Q45" s="24" t="s">
+      <c r="Q45" s="23" t="s">
         <v>276</v>
       </c>
-      <c r="R45" s="24" t="s">
+      <c r="R45" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="U45" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V45" s="24" t="s">
+      <c r="U45" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V45" s="23" t="s">
         <v>330</v>
       </c>
-      <c r="W45" s="24" t="s">
+      <c r="W45" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="X45" s="24" t="s">
+      <c r="X45" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -5476,8 +5473,8 @@
       <c r="D46" s="22">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E46" s="23">
-        <v>1.2E-4</v>
+      <c r="E46" s="22">
+        <v>0.99987999999999999</v>
       </c>
       <c r="H46" s="20" t="s">
         <v>262</v>
@@ -5517,52 +5514,52 @@
       </c>
     </row>
     <row r="47" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="C47" s="25">
+      <c r="C47" s="24">
         <v>0.36329152113316082</v>
       </c>
-      <c r="D47" s="26">
+      <c r="D47" s="25">
         <v>0</v>
       </c>
-      <c r="E47" s="27">
-        <v>0</v>
-      </c>
-      <c r="H47" s="24" t="s">
+      <c r="E47" s="25">
+        <v>1</v>
+      </c>
+      <c r="H47" s="23" t="s">
         <v>263</v>
       </c>
-      <c r="I47" s="24" t="s">
+      <c r="I47" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="J47" s="25">
+      <c r="J47" s="24">
         <v>9.8684675708678102E-2</v>
       </c>
-      <c r="K47" s="24" t="s">
+      <c r="K47" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="L47" s="24" t="s">
+      <c r="L47" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="P47" s="24" t="s">
+      <c r="P47" s="23" t="s">
         <v>263</v>
       </c>
-      <c r="Q47" s="24" t="s">
+      <c r="Q47" s="23" t="s">
         <v>278</v>
       </c>
-      <c r="R47" s="24" t="s">
+      <c r="R47" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="U47" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V47" s="24" t="s">
+      <c r="U47" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V47" s="23" t="s">
         <v>332</v>
       </c>
-      <c r="W47" s="24" t="s">
+      <c r="W47" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="X47" s="24" t="s">
+      <c r="X47" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -5576,8 +5573,8 @@
       <c r="D48" s="22">
         <v>0</v>
       </c>
-      <c r="E48" s="23">
-        <v>0</v>
+      <c r="E48" s="22">
+        <v>1</v>
       </c>
       <c r="H48" s="20" t="s">
         <v>264</v>
@@ -5617,52 +5614,52 @@
       </c>
     </row>
     <row r="49" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B49" s="24" t="s">
+      <c r="B49" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="C49" s="25">
+      <c r="C49" s="24">
         <v>0.45041070682941592</v>
       </c>
-      <c r="D49" s="26">
+      <c r="D49" s="25">
         <v>0</v>
       </c>
-      <c r="E49" s="27">
-        <v>0</v>
-      </c>
-      <c r="H49" s="24" t="s">
+      <c r="E49" s="25">
+        <v>1</v>
+      </c>
+      <c r="H49" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="I49" s="24" t="s">
+      <c r="I49" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="J49" s="25">
+      <c r="J49" s="24">
         <v>7.6524827126991629E-2</v>
       </c>
-      <c r="K49" s="24" t="s">
+      <c r="K49" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="L49" s="24" t="s">
+      <c r="L49" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="P49" s="24" t="s">
+      <c r="P49" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="Q49" s="24" t="s">
+      <c r="Q49" s="23" t="s">
         <v>280</v>
       </c>
-      <c r="R49" s="24" t="s">
+      <c r="R49" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="U49" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V49" s="24" t="s">
+      <c r="U49" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V49" s="23" t="s">
         <v>334</v>
       </c>
-      <c r="W49" s="24" t="s">
+      <c r="W49" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="X49" s="24" t="s">
+      <c r="X49" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -5676,8 +5673,8 @@
       <c r="D50" s="22">
         <v>0</v>
       </c>
-      <c r="E50" s="23">
-        <v>0</v>
+      <c r="E50" s="22">
+        <v>1</v>
       </c>
       <c r="H50" s="20" t="s">
         <v>266</v>
@@ -5717,52 +5714,52 @@
       </c>
     </row>
     <row r="51" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B51" s="24" t="s">
+      <c r="B51" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="C51" s="25">
+      <c r="C51" s="24">
         <v>3.2453732948344846E-2</v>
       </c>
-      <c r="D51" s="26">
+      <c r="D51" s="25">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E51" s="27">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="H51" s="24" t="s">
+      <c r="E51" s="25">
+        <v>0.99994000000000005</v>
+      </c>
+      <c r="H51" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="I51" s="24" t="s">
+      <c r="I51" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="J51" s="25">
+      <c r="J51" s="24">
         <v>2.5787856787443129E-2</v>
       </c>
-      <c r="K51" s="24" t="s">
+      <c r="K51" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="L51" s="24" t="s">
+      <c r="L51" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="P51" s="24" t="s">
+      <c r="P51" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="Q51" s="24" t="s">
+      <c r="Q51" s="23" t="s">
         <v>282</v>
       </c>
-      <c r="R51" s="24" t="s">
+      <c r="R51" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="U51" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V51" s="24" t="s">
+      <c r="U51" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V51" s="23" t="s">
         <v>336</v>
       </c>
-      <c r="W51" s="24" t="s">
+      <c r="W51" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="X51" s="24" t="s">
+      <c r="X51" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -5776,8 +5773,8 @@
       <c r="D52" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E52" s="23">
-        <v>6.0000000000000002E-5</v>
+      <c r="E52" s="22">
+        <v>0.99994000000000005</v>
       </c>
       <c r="U52" s="20" t="s">
         <v>78</v>
@@ -5793,28 +5790,28 @@
       </c>
     </row>
     <row r="53" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B53" s="24" t="s">
+      <c r="B53" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="C53" s="25">
+      <c r="C53" s="24">
         <v>0.22553441762545021</v>
       </c>
-      <c r="D53" s="26">
+      <c r="D53" s="25">
         <v>0</v>
       </c>
-      <c r="E53" s="27">
-        <v>0</v>
-      </c>
-      <c r="U53" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V53" s="24" t="s">
+      <c r="E53" s="25">
+        <v>1</v>
+      </c>
+      <c r="U53" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V53" s="23" t="s">
         <v>338</v>
       </c>
-      <c r="W53" s="24" t="s">
+      <c r="W53" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="X53" s="24" t="s">
+      <c r="X53" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -5828,8 +5825,8 @@
       <c r="D54" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E54" s="23">
-        <v>6.0000000000000002E-5</v>
+      <c r="E54" s="22">
+        <v>0.99994000000000005</v>
       </c>
       <c r="U54" s="20" t="s">
         <v>78</v>
@@ -5845,28 +5842,28 @@
       </c>
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B55" s="24" t="s">
+      <c r="B55" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="C55" s="25">
+      <c r="C55" s="24">
         <v>0.42120218100416462</v>
       </c>
-      <c r="D55" s="26">
+      <c r="D55" s="25">
         <v>0</v>
       </c>
-      <c r="E55" s="27">
-        <v>0</v>
-      </c>
-      <c r="U55" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V55" s="24" t="s">
+      <c r="E55" s="25">
+        <v>1</v>
+      </c>
+      <c r="U55" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V55" s="23" t="s">
         <v>340</v>
       </c>
-      <c r="W55" s="24" t="s">
+      <c r="W55" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="X55" s="24" t="s">
+      <c r="X55" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -5880,8 +5877,8 @@
       <c r="D56" s="22">
         <v>0</v>
       </c>
-      <c r="E56" s="23">
-        <v>0</v>
+      <c r="E56" s="22">
+        <v>1</v>
       </c>
       <c r="U56" s="20" t="s">
         <v>78</v>
@@ -5897,28 +5894,28 @@
       </c>
     </row>
     <row r="57" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B57" s="24" t="s">
+      <c r="B57" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="C57" s="25">
+      <c r="C57" s="24">
         <v>0.42199793535395053</v>
       </c>
-      <c r="D57" s="26">
+      <c r="D57" s="25">
         <v>0</v>
       </c>
-      <c r="E57" s="27">
-        <v>0</v>
-      </c>
-      <c r="U57" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V57" s="24" t="s">
+      <c r="E57" s="25">
+        <v>1</v>
+      </c>
+      <c r="U57" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V57" s="23" t="s">
         <v>343</v>
       </c>
-      <c r="W57" s="24" t="s">
+      <c r="W57" s="23" t="s">
         <v>342</v>
       </c>
-      <c r="X57" s="24" t="s">
+      <c r="X57" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -5932,8 +5929,8 @@
       <c r="D58" s="22">
         <v>0</v>
       </c>
-      <c r="E58" s="23">
-        <v>0</v>
+      <c r="E58" s="22">
+        <v>1</v>
       </c>
       <c r="U58" s="20" t="s">
         <v>78</v>
@@ -5949,28 +5946,28 @@
       </c>
     </row>
     <row r="59" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B59" s="24" t="s">
+      <c r="B59" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="C59" s="25">
+      <c r="C59" s="24">
         <v>0.1949754476421301</v>
       </c>
-      <c r="D59" s="26">
+      <c r="D59" s="25">
         <v>0</v>
       </c>
-      <c r="E59" s="27">
-        <v>0</v>
-      </c>
-      <c r="U59" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V59" s="24" t="s">
+      <c r="E59" s="25">
+        <v>1</v>
+      </c>
+      <c r="U59" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V59" s="23" t="s">
         <v>345</v>
       </c>
-      <c r="W59" s="24" t="s">
+      <c r="W59" s="23" t="s">
         <v>342</v>
       </c>
-      <c r="X59" s="24" t="s">
+      <c r="X59" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -5984,8 +5981,8 @@
       <c r="D60" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E60" s="23">
-        <v>6.0000000000000002E-5</v>
+      <c r="E60" s="22">
+        <v>0.99994000000000005</v>
       </c>
       <c r="U60" s="20" t="s">
         <v>78</v>
@@ -6001,28 +5998,28 @@
       </c>
     </row>
     <row r="61" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B61" s="24" t="s">
+      <c r="B61" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="C61" s="25">
+      <c r="C61" s="24">
         <v>0.48426649084318513</v>
       </c>
-      <c r="D61" s="26">
+      <c r="D61" s="25">
         <v>0</v>
       </c>
-      <c r="E61" s="27">
-        <v>0</v>
-      </c>
-      <c r="U61" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V61" s="24" t="s">
+      <c r="E61" s="25">
+        <v>1</v>
+      </c>
+      <c r="U61" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V61" s="23" t="s">
         <v>347</v>
       </c>
-      <c r="W61" s="24" t="s">
+      <c r="W61" s="23" t="s">
         <v>342</v>
       </c>
-      <c r="X61" s="24" t="s">
+      <c r="X61" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -6036,8 +6033,8 @@
       <c r="D62" s="22">
         <v>0</v>
       </c>
-      <c r="E62" s="23">
-        <v>0</v>
+      <c r="E62" s="22">
+        <v>1</v>
       </c>
       <c r="U62" s="20" t="s">
         <v>78</v>
@@ -6053,28 +6050,28 @@
       </c>
     </row>
     <row r="63" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B63" s="24" t="s">
+      <c r="B63" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="C63" s="25">
+      <c r="C63" s="24">
         <v>0.29807033236846669</v>
       </c>
-      <c r="D63" s="26">
+      <c r="D63" s="25">
         <v>0</v>
       </c>
-      <c r="E63" s="27">
-        <v>0</v>
-      </c>
-      <c r="U63" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V63" s="24" t="s">
+      <c r="E63" s="25">
+        <v>1</v>
+      </c>
+      <c r="U63" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V63" s="23" t="s">
         <v>349</v>
       </c>
-      <c r="W63" s="24" t="s">
+      <c r="W63" s="23" t="s">
         <v>342</v>
       </c>
-      <c r="X63" s="24" t="s">
+      <c r="X63" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -6088,8 +6085,8 @@
       <c r="D64" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E64" s="23">
-        <v>6.0000000000000002E-5</v>
+      <c r="E64" s="22">
+        <v>0.99994000000000005</v>
       </c>
       <c r="U64" s="20" t="s">
         <v>78</v>
@@ -6105,28 +6102,28 @@
       </c>
     </row>
     <row r="65" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B65" s="24" t="s">
+      <c r="B65" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="C65" s="25">
+      <c r="C65" s="24">
         <v>1.1614937966963164E-11</v>
       </c>
-      <c r="D65" s="26">
+      <c r="D65" s="25">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E65" s="27">
-        <v>2.4000000000000001E-4</v>
-      </c>
-      <c r="U65" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V65" s="24" t="s">
+      <c r="E65" s="25">
+        <v>0.99975999999999998</v>
+      </c>
+      <c r="U65" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V65" s="23" t="s">
         <v>351</v>
       </c>
-      <c r="W65" s="24" t="s">
+      <c r="W65" s="23" t="s">
         <v>342</v>
       </c>
-      <c r="X65" s="24" t="s">
+      <c r="X65" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -6140,8 +6137,8 @@
       <c r="D66" s="22">
         <v>0</v>
       </c>
-      <c r="E66" s="23">
-        <v>0</v>
+      <c r="E66" s="22">
+        <v>1</v>
       </c>
       <c r="U66" s="20" t="s">
         <v>78</v>
@@ -6157,28 +6154,28 @@
       </c>
     </row>
     <row r="67" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B67" s="24" t="s">
+      <c r="B67" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="C67" s="25">
+      <c r="C67" s="24">
         <v>0.41256987092391217</v>
       </c>
-      <c r="D67" s="26">
+      <c r="D67" s="25">
         <v>0</v>
       </c>
-      <c r="E67" s="27">
-        <v>0</v>
-      </c>
-      <c r="U67" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V67" s="24" t="s">
+      <c r="E67" s="25">
+        <v>1</v>
+      </c>
+      <c r="U67" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V67" s="23" t="s">
         <v>353</v>
       </c>
-      <c r="W67" s="24" t="s">
+      <c r="W67" s="23" t="s">
         <v>342</v>
       </c>
-      <c r="X67" s="24" t="s">
+      <c r="X67" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -6192,8 +6189,8 @@
       <c r="D68" s="22">
         <v>3.3000000000000003</v>
       </c>
-      <c r="E68" s="23">
-        <v>1.8000000000000001E-4</v>
+      <c r="E68" s="22">
+        <v>0.99982000000000004</v>
       </c>
       <c r="U68" s="20" t="s">
         <v>78</v>
@@ -6209,28 +6206,28 @@
       </c>
     </row>
     <row r="69" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B69" s="24" t="s">
+      <c r="B69" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="C69" s="25">
+      <c r="C69" s="24">
         <v>3.6117506809133972E-3</v>
       </c>
-      <c r="D69" s="26">
+      <c r="D69" s="25">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E69" s="27">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="U69" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V69" s="24" t="s">
+      <c r="E69" s="25">
+        <v>0.99994000000000005</v>
+      </c>
+      <c r="U69" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V69" s="23" t="s">
         <v>355</v>
       </c>
-      <c r="W69" s="24" t="s">
+      <c r="W69" s="23" t="s">
         <v>356</v>
       </c>
-      <c r="X69" s="24" t="s">
+      <c r="X69" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -6244,8 +6241,8 @@
       <c r="D70" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E70" s="23">
-        <v>6.0000000000000002E-5</v>
+      <c r="E70" s="22">
+        <v>0.99994000000000005</v>
       </c>
       <c r="U70" s="20" t="s">
         <v>78</v>
@@ -6261,28 +6258,28 @@
       </c>
     </row>
     <row r="71" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B71" s="24" t="s">
+      <c r="B71" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="C71" s="25">
+      <c r="C71" s="24">
         <v>0.44594206279108428</v>
       </c>
-      <c r="D71" s="26">
+      <c r="D71" s="25">
         <v>0</v>
       </c>
-      <c r="E71" s="27">
-        <v>0</v>
-      </c>
-      <c r="U71" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V71" s="24" t="s">
+      <c r="E71" s="25">
+        <v>1</v>
+      </c>
+      <c r="U71" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V71" s="23" t="s">
         <v>358</v>
       </c>
-      <c r="W71" s="24" t="s">
+      <c r="W71" s="23" t="s">
         <v>356</v>
       </c>
-      <c r="X71" s="24" t="s">
+      <c r="X71" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -6296,8 +6293,8 @@
       <c r="D72" s="22">
         <v>0</v>
       </c>
-      <c r="E72" s="23">
-        <v>0</v>
+      <c r="E72" s="22">
+        <v>1</v>
       </c>
       <c r="U72" s="20" t="s">
         <v>78</v>
@@ -6313,28 +6310,28 @@
       </c>
     </row>
     <row r="73" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B73" s="24" t="s">
+      <c r="B73" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="C73" s="25">
+      <c r="C73" s="24">
         <v>0.27133375111469726</v>
       </c>
-      <c r="D73" s="26">
+      <c r="D73" s="25">
         <v>0</v>
       </c>
-      <c r="E73" s="27">
-        <v>0</v>
-      </c>
-      <c r="U73" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V73" s="24" t="s">
+      <c r="E73" s="25">
+        <v>1</v>
+      </c>
+      <c r="U73" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V73" s="23" t="s">
         <v>360</v>
       </c>
-      <c r="W73" s="24" t="s">
+      <c r="W73" s="23" t="s">
         <v>356</v>
       </c>
-      <c r="X73" s="24" t="s">
+      <c r="X73" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -6348,8 +6345,8 @@
       <c r="D74" s="22">
         <v>0</v>
       </c>
-      <c r="E74" s="23">
-        <v>0</v>
+      <c r="E74" s="22">
+        <v>1</v>
       </c>
       <c r="U74" s="20" t="s">
         <v>78</v>
@@ -6365,28 +6362,28 @@
       </c>
     </row>
     <row r="75" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B75" s="24" t="s">
+      <c r="B75" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="C75" s="25">
+      <c r="C75" s="24">
         <v>0.26259753579782291</v>
       </c>
-      <c r="D75" s="26">
+      <c r="D75" s="25">
         <v>0</v>
       </c>
-      <c r="E75" s="27">
-        <v>0</v>
-      </c>
-      <c r="U75" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V75" s="24" t="s">
+      <c r="E75" s="25">
+        <v>1</v>
+      </c>
+      <c r="U75" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V75" s="23" t="s">
         <v>362</v>
       </c>
-      <c r="W75" s="24" t="s">
+      <c r="W75" s="23" t="s">
         <v>356</v>
       </c>
-      <c r="X75" s="24" t="s">
+      <c r="X75" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -6400,8 +6397,8 @@
       <c r="D76" s="22">
         <v>0</v>
       </c>
-      <c r="E76" s="23">
-        <v>0</v>
+      <c r="E76" s="22">
+        <v>1</v>
       </c>
       <c r="U76" s="20" t="s">
         <v>78</v>
@@ -6417,28 +6414,28 @@
       </c>
     </row>
     <row r="77" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B77" s="24" t="s">
+      <c r="B77" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="C77" s="25">
+      <c r="C77" s="24">
         <v>2.7174064092257453E-2</v>
       </c>
-      <c r="D77" s="26">
+      <c r="D77" s="25">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E77" s="27">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="U77" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V77" s="24" t="s">
+      <c r="E77" s="25">
+        <v>0.99994000000000005</v>
+      </c>
+      <c r="U77" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V77" s="23" t="s">
         <v>364</v>
       </c>
-      <c r="W77" s="24" t="s">
+      <c r="W77" s="23" t="s">
         <v>356</v>
       </c>
-      <c r="X77" s="24" t="s">
+      <c r="X77" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -6452,8 +6449,8 @@
       <c r="D78" s="22">
         <v>0</v>
       </c>
-      <c r="E78" s="23">
-        <v>0</v>
+      <c r="E78" s="22">
+        <v>1</v>
       </c>
       <c r="U78" s="20" t="s">
         <v>78</v>
@@ -6469,28 +6466,28 @@
       </c>
     </row>
     <row r="79" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B79" s="24" t="s">
+      <c r="B79" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="C79" s="25">
+      <c r="C79" s="24">
         <v>0.21833531939887563</v>
       </c>
-      <c r="D79" s="26">
+      <c r="D79" s="25">
         <v>0</v>
       </c>
-      <c r="E79" s="27">
-        <v>0</v>
-      </c>
-      <c r="U79" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V79" s="24" t="s">
+      <c r="E79" s="25">
+        <v>1</v>
+      </c>
+      <c r="U79" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V79" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="W79" s="24" t="s">
+      <c r="W79" s="23" t="s">
         <v>356</v>
       </c>
-      <c r="X79" s="24" t="s">
+      <c r="X79" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -6504,8 +6501,8 @@
       <c r="D80" s="22">
         <v>0</v>
       </c>
-      <c r="E80" s="23">
-        <v>0</v>
+      <c r="E80" s="22">
+        <v>1</v>
       </c>
       <c r="U80" s="20" t="s">
         <v>78</v>
@@ -6521,28 +6518,28 @@
       </c>
     </row>
     <row r="81" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B81" s="24" t="s">
+      <c r="B81" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="C81" s="25">
+      <c r="C81" s="24">
         <v>0.21450751505963095</v>
       </c>
-      <c r="D81" s="26">
+      <c r="D81" s="25">
         <v>0</v>
       </c>
-      <c r="E81" s="27">
-        <v>0</v>
-      </c>
-      <c r="U81" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V81" s="24" t="s">
+      <c r="E81" s="25">
+        <v>1</v>
+      </c>
+      <c r="U81" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V81" s="23" t="s">
         <v>368</v>
       </c>
-      <c r="W81" s="24" t="s">
+      <c r="W81" s="23" t="s">
         <v>356</v>
       </c>
-      <c r="X81" s="24" t="s">
+      <c r="X81" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -6556,8 +6553,8 @@
       <c r="D82" s="22">
         <v>0</v>
       </c>
-      <c r="E82" s="23">
-        <v>0</v>
+      <c r="E82" s="22">
+        <v>1</v>
       </c>
       <c r="U82" s="20" t="s">
         <v>78</v>
@@ -6573,28 +6570,28 @@
       </c>
     </row>
     <row r="83" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B83" s="24" t="s">
+      <c r="B83" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="C83" s="25">
+      <c r="C83" s="24">
         <v>0.27209325523845701</v>
       </c>
-      <c r="D83" s="26">
+      <c r="D83" s="25">
         <v>0</v>
       </c>
-      <c r="E83" s="27">
-        <v>0</v>
-      </c>
-      <c r="U83" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V83" s="24" t="s">
+      <c r="E83" s="25">
+        <v>1</v>
+      </c>
+      <c r="U83" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V83" s="23" t="s">
         <v>371</v>
       </c>
-      <c r="W83" s="24" t="s">
+      <c r="W83" s="23" t="s">
         <v>370</v>
       </c>
-      <c r="X83" s="24" t="s">
+      <c r="X83" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -6608,8 +6605,8 @@
       <c r="D84" s="22">
         <v>0</v>
       </c>
-      <c r="E84" s="23">
-        <v>0</v>
+      <c r="E84" s="22">
+        <v>1</v>
       </c>
       <c r="U84" s="20" t="s">
         <v>78</v>
@@ -6625,28 +6622,28 @@
       </c>
     </row>
     <row r="85" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B85" s="24" t="s">
+      <c r="B85" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="C85" s="25">
+      <c r="C85" s="24">
         <v>0.20449902321570163</v>
       </c>
-      <c r="D85" s="26">
+      <c r="D85" s="25">
         <v>0</v>
       </c>
-      <c r="E85" s="27">
-        <v>0</v>
-      </c>
-      <c r="U85" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V85" s="24" t="s">
+      <c r="E85" s="25">
+        <v>1</v>
+      </c>
+      <c r="U85" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V85" s="23" t="s">
         <v>373</v>
       </c>
-      <c r="W85" s="24" t="s">
+      <c r="W85" s="23" t="s">
         <v>370</v>
       </c>
-      <c r="X85" s="24" t="s">
+      <c r="X85" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -6660,8 +6657,8 @@
       <c r="D86" s="22">
         <v>0</v>
       </c>
-      <c r="E86" s="23">
-        <v>0</v>
+      <c r="E86" s="22">
+        <v>1</v>
       </c>
       <c r="U86" s="20" t="s">
         <v>78</v>
@@ -6677,28 +6674,28 @@
       </c>
     </row>
     <row r="87" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B87" s="24" t="s">
+      <c r="B87" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="C87" s="25">
+      <c r="C87" s="24">
         <v>0.19401529504568285</v>
       </c>
-      <c r="D87" s="26">
+      <c r="D87" s="25">
         <v>0</v>
       </c>
-      <c r="E87" s="27">
-        <v>0</v>
-      </c>
-      <c r="U87" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V87" s="24" t="s">
+      <c r="E87" s="25">
+        <v>1</v>
+      </c>
+      <c r="U87" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V87" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="W87" s="24" t="s">
+      <c r="W87" s="23" t="s">
         <v>370</v>
       </c>
-      <c r="X87" s="24" t="s">
+      <c r="X87" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -6712,8 +6709,8 @@
       <c r="D88" s="22">
         <v>0</v>
       </c>
-      <c r="E88" s="23">
-        <v>0</v>
+      <c r="E88" s="22">
+        <v>1</v>
       </c>
       <c r="U88" s="20" t="s">
         <v>78</v>
@@ -6729,28 +6726,28 @@
       </c>
     </row>
     <row r="89" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B89" s="24" t="s">
+      <c r="B89" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="C89" s="25">
+      <c r="C89" s="24">
         <v>0.23025174528857681</v>
       </c>
-      <c r="D89" s="26">
+      <c r="D89" s="25">
         <v>0</v>
       </c>
-      <c r="E89" s="27">
-        <v>0</v>
-      </c>
-      <c r="U89" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V89" s="24" t="s">
+      <c r="E89" s="25">
+        <v>1</v>
+      </c>
+      <c r="U89" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V89" s="23" t="s">
         <v>377</v>
       </c>
-      <c r="W89" s="24" t="s">
+      <c r="W89" s="23" t="s">
         <v>370</v>
       </c>
-      <c r="X89" s="24" t="s">
+      <c r="X89" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -6764,8 +6761,8 @@
       <c r="D90" s="22">
         <v>0</v>
       </c>
-      <c r="E90" s="23">
-        <v>0</v>
+      <c r="E90" s="22">
+        <v>1</v>
       </c>
       <c r="U90" s="20" t="s">
         <v>78</v>
@@ -6781,28 +6778,28 @@
       </c>
     </row>
     <row r="91" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B91" s="24" t="s">
+      <c r="B91" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="C91" s="25">
+      <c r="C91" s="24">
         <v>6.6800904785150136E-8</v>
       </c>
-      <c r="D91" s="26">
+      <c r="D91" s="25">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E91" s="27">
-        <v>1.2E-4</v>
-      </c>
-      <c r="U91" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V91" s="24" t="s">
+      <c r="E91" s="25">
+        <v>0.99987999999999999</v>
+      </c>
+      <c r="U91" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V91" s="23" t="s">
         <v>379</v>
       </c>
-      <c r="W91" s="24" t="s">
+      <c r="W91" s="23" t="s">
         <v>370</v>
       </c>
-      <c r="X91" s="24" t="s">
+      <c r="X91" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -6816,8 +6813,8 @@
       <c r="D92" s="22">
         <v>0</v>
       </c>
-      <c r="E92" s="23">
-        <v>0</v>
+      <c r="E92" s="22">
+        <v>1</v>
       </c>
       <c r="U92" s="20" t="s">
         <v>78</v>
@@ -6833,28 +6830,28 @@
       </c>
     </row>
     <row r="93" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B93" s="24" t="s">
+      <c r="B93" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="C93" s="25">
+      <c r="C93" s="24">
         <v>0.31679647805252381</v>
       </c>
-      <c r="D93" s="26">
+      <c r="D93" s="25">
         <v>0</v>
       </c>
-      <c r="E93" s="27">
-        <v>0</v>
-      </c>
-      <c r="U93" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V93" s="24" t="s">
+      <c r="E93" s="25">
+        <v>1</v>
+      </c>
+      <c r="U93" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V93" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="W93" s="24" t="s">
+      <c r="W93" s="23" t="s">
         <v>370</v>
       </c>
-      <c r="X93" s="24" t="s">
+      <c r="X93" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -6868,8 +6865,8 @@
       <c r="D94" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E94" s="23">
-        <v>6.0000000000000002E-5</v>
+      <c r="E94" s="22">
+        <v>0.99994000000000005</v>
       </c>
       <c r="U94" s="20" t="s">
         <v>78</v>
@@ -6885,28 +6882,28 @@
       </c>
     </row>
     <row r="95" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B95" s="24" t="s">
+      <c r="B95" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="C95" s="25">
+      <c r="C95" s="24">
         <v>1.2002323463199533E-2</v>
       </c>
-      <c r="D95" s="26">
+      <c r="D95" s="25">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E95" s="27">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="U95" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V95" s="24" t="s">
+      <c r="E95" s="25">
+        <v>0.99994000000000005</v>
+      </c>
+      <c r="U95" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V95" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="W95" s="24" t="s">
+      <c r="W95" s="23" t="s">
         <v>384</v>
       </c>
-      <c r="X95" s="24" t="s">
+      <c r="X95" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -6920,8 +6917,8 @@
       <c r="D96" s="22">
         <v>0</v>
       </c>
-      <c r="E96" s="23">
-        <v>0</v>
+      <c r="E96" s="22">
+        <v>1</v>
       </c>
       <c r="U96" s="20" t="s">
         <v>78</v>
@@ -6937,28 +6934,28 @@
       </c>
     </row>
     <row r="97" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B97" s="24" t="s">
+      <c r="B97" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="C97" s="25">
+      <c r="C97" s="24">
         <v>8.4495362402765102E-5</v>
       </c>
-      <c r="D97" s="26">
+      <c r="D97" s="25">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E97" s="27">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="U97" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V97" s="24" t="s">
+      <c r="E97" s="25">
+        <v>0.99994000000000005</v>
+      </c>
+      <c r="U97" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V97" s="23" t="s">
         <v>386</v>
       </c>
-      <c r="W97" s="24" t="s">
+      <c r="W97" s="23" t="s">
         <v>384</v>
       </c>
-      <c r="X97" s="24" t="s">
+      <c r="X97" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -6972,8 +6969,8 @@
       <c r="D98" s="22">
         <v>0</v>
       </c>
-      <c r="E98" s="23">
-        <v>0</v>
+      <c r="E98" s="22">
+        <v>1</v>
       </c>
       <c r="U98" s="20" t="s">
         <v>78</v>
@@ -6989,28 +6986,28 @@
       </c>
     </row>
     <row r="99" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B99" s="24" t="s">
+      <c r="B99" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="C99" s="25">
+      <c r="C99" s="24">
         <v>0.44844557907749072</v>
       </c>
-      <c r="D99" s="26">
+      <c r="D99" s="25">
         <v>0</v>
       </c>
-      <c r="E99" s="27">
-        <v>0</v>
-      </c>
-      <c r="U99" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V99" s="24" t="s">
+      <c r="E99" s="25">
+        <v>1</v>
+      </c>
+      <c r="U99" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V99" s="23" t="s">
         <v>388</v>
       </c>
-      <c r="W99" s="24" t="s">
+      <c r="W99" s="23" t="s">
         <v>384</v>
       </c>
-      <c r="X99" s="24" t="s">
+      <c r="X99" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -7024,8 +7021,8 @@
       <c r="D100" s="22">
         <v>0</v>
       </c>
-      <c r="E100" s="23">
-        <v>0</v>
+      <c r="E100" s="22">
+        <v>1</v>
       </c>
       <c r="U100" s="20" t="s">
         <v>78</v>
@@ -7041,28 +7038,28 @@
       </c>
     </row>
     <row r="101" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B101" s="24" t="s">
+      <c r="B101" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="C101" s="25">
+      <c r="C101" s="24">
         <v>0.39445957007544202</v>
       </c>
-      <c r="D101" s="26">
+      <c r="D101" s="25">
         <v>0</v>
       </c>
-      <c r="E101" s="27">
-        <v>0</v>
-      </c>
-      <c r="U101" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V101" s="24" t="s">
+      <c r="E101" s="25">
+        <v>1</v>
+      </c>
+      <c r="U101" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V101" s="23" t="s">
         <v>390</v>
       </c>
-      <c r="W101" s="24" t="s">
+      <c r="W101" s="23" t="s">
         <v>384</v>
       </c>
-      <c r="X101" s="24" t="s">
+      <c r="X101" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -7076,8 +7073,8 @@
       <c r="D102" s="22">
         <v>0</v>
       </c>
-      <c r="E102" s="23">
-        <v>0</v>
+      <c r="E102" s="22">
+        <v>1</v>
       </c>
       <c r="U102" s="20" t="s">
         <v>78</v>
@@ -7093,28 +7090,28 @@
       </c>
     </row>
     <row r="103" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B103" s="24" t="s">
+      <c r="B103" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="C103" s="25">
+      <c r="C103" s="24">
         <v>0.45160295857394772</v>
       </c>
-      <c r="D103" s="26">
+      <c r="D103" s="25">
         <v>0</v>
       </c>
-      <c r="E103" s="27">
-        <v>0</v>
-      </c>
-      <c r="U103" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V103" s="24" t="s">
+      <c r="E103" s="25">
+        <v>1</v>
+      </c>
+      <c r="U103" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V103" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="W103" s="24" t="s">
+      <c r="W103" s="23" t="s">
         <v>384</v>
       </c>
-      <c r="X103" s="24" t="s">
+      <c r="X103" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -7128,8 +7125,8 @@
       <c r="D104" s="22">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E104" s="23">
-        <v>2.4000000000000001E-4</v>
+      <c r="E104" s="22">
+        <v>0.99975999999999998</v>
       </c>
       <c r="U104" s="20" t="s">
         <v>78</v>
@@ -7145,28 +7142,28 @@
       </c>
     </row>
     <row r="105" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B105" s="24" t="s">
+      <c r="B105" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="C105" s="25">
+      <c r="C105" s="24">
         <v>0.5043613589278213</v>
       </c>
-      <c r="D105" s="26">
+      <c r="D105" s="25">
         <v>0</v>
       </c>
-      <c r="E105" s="27">
-        <v>0</v>
-      </c>
-      <c r="U105" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V105" s="24" t="s">
+      <c r="E105" s="25">
+        <v>1</v>
+      </c>
+      <c r="U105" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V105" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="W105" s="24" t="s">
+      <c r="W105" s="23" t="s">
         <v>384</v>
       </c>
-      <c r="X105" s="24" t="s">
+      <c r="X105" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -7180,8 +7177,8 @@
       <c r="D106" s="22">
         <v>0</v>
       </c>
-      <c r="E106" s="23">
-        <v>0</v>
+      <c r="E106" s="22">
+        <v>1</v>
       </c>
       <c r="U106" s="20" t="s">
         <v>78</v>
@@ -7197,28 +7194,28 @@
       </c>
     </row>
     <row r="107" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B107" s="24" t="s">
+      <c r="B107" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="C107" s="25">
+      <c r="C107" s="24">
         <v>0.49660717466837323</v>
       </c>
-      <c r="D107" s="26">
+      <c r="D107" s="25">
         <v>0</v>
       </c>
-      <c r="E107" s="27">
-        <v>0</v>
-      </c>
-      <c r="U107" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V107" s="24" t="s">
+      <c r="E107" s="25">
+        <v>1</v>
+      </c>
+      <c r="U107" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V107" s="23" t="s">
         <v>396</v>
       </c>
-      <c r="W107" s="24" t="s">
+      <c r="W107" s="23" t="s">
         <v>384</v>
       </c>
-      <c r="X107" s="24" t="s">
+      <c r="X107" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -7232,8 +7229,8 @@
       <c r="D108" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E108" s="23">
-        <v>6.0000000000000002E-5</v>
+      <c r="E108" s="22">
+        <v>0.99994000000000005</v>
       </c>
       <c r="U108" s="20" t="s">
         <v>78</v>
@@ -7249,28 +7246,28 @@
       </c>
     </row>
     <row r="109" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B109" s="24" t="s">
+      <c r="B109" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="C109" s="25">
+      <c r="C109" s="24">
         <v>0.28276963090300772</v>
       </c>
-      <c r="D109" s="26">
+      <c r="D109" s="25">
         <v>0</v>
       </c>
-      <c r="E109" s="27">
-        <v>0</v>
-      </c>
-      <c r="U109" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V109" s="24" t="s">
+      <c r="E109" s="25">
+        <v>1</v>
+      </c>
+      <c r="U109" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V109" s="23" t="s">
         <v>399</v>
       </c>
-      <c r="W109" s="24" t="s">
+      <c r="W109" s="23" t="s">
         <v>398</v>
       </c>
-      <c r="X109" s="24" t="s">
+      <c r="X109" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -7284,8 +7281,8 @@
       <c r="D110" s="22">
         <v>0</v>
       </c>
-      <c r="E110" s="23">
-        <v>0</v>
+      <c r="E110" s="22">
+        <v>1</v>
       </c>
       <c r="U110" s="20" t="s">
         <v>78</v>
@@ -7301,28 +7298,28 @@
       </c>
     </row>
     <row r="111" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B111" s="24" t="s">
+      <c r="B111" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="C111" s="25">
+      <c r="C111" s="24">
         <v>1.6066770076779827E-2</v>
       </c>
-      <c r="D111" s="26">
+      <c r="D111" s="25">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E111" s="27">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="U111" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V111" s="24" t="s">
+      <c r="E111" s="25">
+        <v>0.99994000000000005</v>
+      </c>
+      <c r="U111" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V111" s="23" t="s">
         <v>401</v>
       </c>
-      <c r="W111" s="24" t="s">
+      <c r="W111" s="23" t="s">
         <v>398</v>
       </c>
-      <c r="X111" s="24" t="s">
+      <c r="X111" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -7336,8 +7333,8 @@
       <c r="D112" s="22">
         <v>0</v>
       </c>
-      <c r="E112" s="23">
-        <v>0</v>
+      <c r="E112" s="22">
+        <v>1</v>
       </c>
       <c r="U112" s="20" t="s">
         <v>78</v>
@@ -7353,28 +7350,28 @@
       </c>
     </row>
     <row r="113" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B113" s="24" t="s">
+      <c r="B113" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="C113" s="25">
+      <c r="C113" s="24">
         <v>0.31796905762678185</v>
       </c>
-      <c r="D113" s="26">
+      <c r="D113" s="25">
         <v>0</v>
       </c>
-      <c r="E113" s="27">
-        <v>0</v>
-      </c>
-      <c r="U113" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V113" s="24" t="s">
+      <c r="E113" s="25">
+        <v>1</v>
+      </c>
+      <c r="U113" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V113" s="23" t="s">
         <v>403</v>
       </c>
-      <c r="W113" s="24" t="s">
+      <c r="W113" s="23" t="s">
         <v>398</v>
       </c>
-      <c r="X113" s="24" t="s">
+      <c r="X113" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -7388,8 +7385,8 @@
       <c r="D114" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E114" s="23">
-        <v>6.0000000000000002E-5</v>
+      <c r="E114" s="22">
+        <v>0.99994000000000005</v>
       </c>
       <c r="U114" s="20" t="s">
         <v>78</v>
@@ -7405,28 +7402,28 @@
       </c>
     </row>
     <row r="115" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B115" s="24" t="s">
+      <c r="B115" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="C115" s="25">
+      <c r="C115" s="24">
         <v>2.4451953629447798E-2</v>
       </c>
-      <c r="D115" s="26">
+      <c r="D115" s="25">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E115" s="27">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="U115" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V115" s="24" t="s">
+      <c r="E115" s="25">
+        <v>0.99994000000000005</v>
+      </c>
+      <c r="U115" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V115" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="W115" s="24" t="s">
+      <c r="W115" s="23" t="s">
         <v>398</v>
       </c>
-      <c r="X115" s="24" t="s">
+      <c r="X115" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -7440,8 +7437,8 @@
       <c r="D116" s="22">
         <v>0</v>
       </c>
-      <c r="E116" s="23">
-        <v>0</v>
+      <c r="E116" s="22">
+        <v>1</v>
       </c>
       <c r="U116" s="20" t="s">
         <v>78</v>
@@ -7457,28 +7454,28 @@
       </c>
     </row>
     <row r="117" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B117" s="24" t="s">
+      <c r="B117" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="C117" s="25">
+      <c r="C117" s="24">
         <v>0.33178845867888879</v>
       </c>
-      <c r="D117" s="26">
+      <c r="D117" s="25">
         <v>0</v>
       </c>
-      <c r="E117" s="27">
-        <v>0</v>
-      </c>
-      <c r="U117" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V117" s="24" t="s">
+      <c r="E117" s="25">
+        <v>1</v>
+      </c>
+      <c r="U117" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V117" s="23" t="s">
         <v>407</v>
       </c>
-      <c r="W117" s="24" t="s">
+      <c r="W117" s="23" t="s">
         <v>398</v>
       </c>
-      <c r="X117" s="24" t="s">
+      <c r="X117" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -7492,8 +7489,8 @@
       <c r="D118" s="22">
         <v>3.3000000000000003</v>
       </c>
-      <c r="E118" s="23">
-        <v>1.8000000000000001E-4</v>
+      <c r="E118" s="22">
+        <v>0.99982000000000004</v>
       </c>
       <c r="U118" s="20" t="s">
         <v>78</v>
@@ -7509,28 +7506,28 @@
       </c>
     </row>
     <row r="119" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B119" s="24" t="s">
+      <c r="B119" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="C119" s="25">
+      <c r="C119" s="24">
         <v>0.33737995150627226</v>
       </c>
-      <c r="D119" s="26">
+      <c r="D119" s="25">
         <v>0</v>
       </c>
-      <c r="E119" s="27">
-        <v>0</v>
-      </c>
-      <c r="U119" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V119" s="24" t="s">
+      <c r="E119" s="25">
+        <v>1</v>
+      </c>
+      <c r="U119" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V119" s="23" t="s">
         <v>409</v>
       </c>
-      <c r="W119" s="24" t="s">
+      <c r="W119" s="23" t="s">
         <v>398</v>
       </c>
-      <c r="X119" s="24" t="s">
+      <c r="X119" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -7544,8 +7541,8 @@
       <c r="D120" s="22">
         <v>0</v>
       </c>
-      <c r="E120" s="23">
-        <v>0</v>
+      <c r="E120" s="22">
+        <v>1</v>
       </c>
       <c r="U120" s="20" t="s">
         <v>78</v>
@@ -7561,28 +7558,28 @@
       </c>
     </row>
     <row r="121" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B121" s="24" t="s">
+      <c r="B121" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="C121" s="25">
+      <c r="C121" s="24">
         <v>0.34461952419460412</v>
       </c>
-      <c r="D121" s="26">
+      <c r="D121" s="25">
         <v>0</v>
       </c>
-      <c r="E121" s="27">
-        <v>0</v>
-      </c>
-      <c r="U121" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V121" s="24" t="s">
+      <c r="E121" s="25">
+        <v>1</v>
+      </c>
+      <c r="U121" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V121" s="23" t="s">
         <v>411</v>
       </c>
-      <c r="W121" s="24" t="s">
+      <c r="W121" s="23" t="s">
         <v>412</v>
       </c>
-      <c r="X121" s="24" t="s">
+      <c r="X121" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -7596,8 +7593,8 @@
       <c r="D122" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E122" s="23">
-        <v>6.0000000000000002E-5</v>
+      <c r="E122" s="22">
+        <v>0.99994000000000005</v>
       </c>
       <c r="U122" s="20" t="s">
         <v>78</v>
@@ -7613,28 +7610,28 @@
       </c>
     </row>
     <row r="123" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B123" s="24" t="s">
+      <c r="B123" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="C123" s="25">
+      <c r="C123" s="24">
         <v>2.165813577886435E-2</v>
       </c>
-      <c r="D123" s="26">
+      <c r="D123" s="25">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E123" s="27">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="U123" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V123" s="24" t="s">
+      <c r="E123" s="25">
+        <v>0.99994000000000005</v>
+      </c>
+      <c r="U123" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V123" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="W123" s="24" t="s">
+      <c r="W123" s="23" t="s">
         <v>412</v>
       </c>
-      <c r="X123" s="24" t="s">
+      <c r="X123" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -7648,8 +7645,8 @@
       <c r="D124" s="22">
         <v>0</v>
       </c>
-      <c r="E124" s="23">
-        <v>0</v>
+      <c r="E124" s="22">
+        <v>1</v>
       </c>
       <c r="U124" s="20" t="s">
         <v>78</v>
@@ -7665,28 +7662,28 @@
       </c>
     </row>
     <row r="125" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B125" s="24" t="s">
+      <c r="B125" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="C125" s="25">
+      <c r="C125" s="24">
         <v>1.0565648322655313E-2</v>
       </c>
-      <c r="D125" s="26">
+      <c r="D125" s="25">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E125" s="27">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="U125" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V125" s="24" t="s">
+      <c r="E125" s="25">
+        <v>0.99994000000000005</v>
+      </c>
+      <c r="U125" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V125" s="23" t="s">
         <v>416</v>
       </c>
-      <c r="W125" s="24" t="s">
+      <c r="W125" s="23" t="s">
         <v>412</v>
       </c>
-      <c r="X125" s="24" t="s">
+      <c r="X125" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -7700,8 +7697,8 @@
       <c r="D126" s="22">
         <v>0</v>
       </c>
-      <c r="E126" s="23">
-        <v>0</v>
+      <c r="E126" s="22">
+        <v>1</v>
       </c>
       <c r="U126" s="20" t="s">
         <v>78</v>
@@ -7717,16 +7714,16 @@
       </c>
     </row>
     <row r="127" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="U127" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V127" s="24" t="s">
+      <c r="U127" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V127" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="W127" s="24" t="s">
+      <c r="W127" s="23" t="s">
         <v>412</v>
       </c>
-      <c r="X127" s="24" t="s">
+      <c r="X127" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -7745,16 +7742,16 @@
       </c>
     </row>
     <row r="129" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U129" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V129" s="24" t="s">
+      <c r="U129" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V129" s="23" t="s">
         <v>420</v>
       </c>
-      <c r="W129" s="24" t="s">
+      <c r="W129" s="23" t="s">
         <v>412</v>
       </c>
-      <c r="X129" s="24" t="s">
+      <c r="X129" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -7773,16 +7770,16 @@
       </c>
     </row>
     <row r="131" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U131" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V131" s="24" t="s">
+      <c r="U131" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V131" s="23" t="s">
         <v>422</v>
       </c>
-      <c r="W131" s="24" t="s">
+      <c r="W131" s="23" t="s">
         <v>412</v>
       </c>
-      <c r="X131" s="24" t="s">
+      <c r="X131" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -7801,16 +7798,16 @@
       </c>
     </row>
     <row r="133" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U133" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V133" s="24" t="s">
+      <c r="U133" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V133" s="23" t="s">
         <v>424</v>
       </c>
-      <c r="W133" s="24" t="s">
+      <c r="W133" s="23" t="s">
         <v>412</v>
       </c>
-      <c r="X133" s="24" t="s">
+      <c r="X133" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -7829,16 +7826,16 @@
       </c>
     </row>
     <row r="135" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U135" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V135" s="24" t="s">
+      <c r="U135" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V135" s="23" t="s">
         <v>427</v>
       </c>
-      <c r="W135" s="24" t="s">
+      <c r="W135" s="23" t="s">
         <v>426</v>
       </c>
-      <c r="X135" s="24" t="s">
+      <c r="X135" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -7857,16 +7854,16 @@
       </c>
     </row>
     <row r="137" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U137" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V137" s="24" t="s">
+      <c r="U137" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V137" s="23" t="s">
         <v>429</v>
       </c>
-      <c r="W137" s="24" t="s">
+      <c r="W137" s="23" t="s">
         <v>426</v>
       </c>
-      <c r="X137" s="24" t="s">
+      <c r="X137" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -7885,16 +7882,16 @@
       </c>
     </row>
     <row r="139" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U139" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V139" s="24" t="s">
+      <c r="U139" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V139" s="23" t="s">
         <v>431</v>
       </c>
-      <c r="W139" s="24" t="s">
+      <c r="W139" s="23" t="s">
         <v>426</v>
       </c>
-      <c r="X139" s="24" t="s">
+      <c r="X139" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -7913,16 +7910,16 @@
       </c>
     </row>
     <row r="141" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U141" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V141" s="24" t="s">
+      <c r="U141" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V141" s="23" t="s">
         <v>433</v>
       </c>
-      <c r="W141" s="24" t="s">
+      <c r="W141" s="23" t="s">
         <v>426</v>
       </c>
-      <c r="X141" s="24" t="s">
+      <c r="X141" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -7941,16 +7938,16 @@
       </c>
     </row>
     <row r="143" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U143" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V143" s="24" t="s">
+      <c r="U143" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V143" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="W143" s="24" t="s">
+      <c r="W143" s="23" t="s">
         <v>426</v>
       </c>
-      <c r="X143" s="24" t="s">
+      <c r="X143" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -7969,16 +7966,16 @@
       </c>
     </row>
     <row r="145" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U145" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V145" s="24" t="s">
+      <c r="U145" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V145" s="23" t="s">
         <v>437</v>
       </c>
-      <c r="W145" s="24" t="s">
+      <c r="W145" s="23" t="s">
         <v>426</v>
       </c>
-      <c r="X145" s="24" t="s">
+      <c r="X145" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -7997,16 +7994,16 @@
       </c>
     </row>
     <row r="147" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U147" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V147" s="24" t="s">
+      <c r="U147" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V147" s="23" t="s">
         <v>439</v>
       </c>
-      <c r="W147" s="24" t="s">
+      <c r="W147" s="23" t="s">
         <v>440</v>
       </c>
-      <c r="X147" s="24" t="s">
+      <c r="X147" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -8025,16 +8022,16 @@
       </c>
     </row>
     <row r="149" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U149" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V149" s="24" t="s">
+      <c r="U149" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V149" s="23" t="s">
         <v>442</v>
       </c>
-      <c r="W149" s="24" t="s">
+      <c r="W149" s="23" t="s">
         <v>440</v>
       </c>
-      <c r="X149" s="24" t="s">
+      <c r="X149" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -8053,16 +8050,16 @@
       </c>
     </row>
     <row r="151" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U151" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V151" s="24" t="s">
+      <c r="U151" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V151" s="23" t="s">
         <v>444</v>
       </c>
-      <c r="W151" s="24" t="s">
+      <c r="W151" s="23" t="s">
         <v>440</v>
       </c>
-      <c r="X151" s="24" t="s">
+      <c r="X151" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -8081,16 +8078,16 @@
       </c>
     </row>
     <row r="153" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U153" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V153" s="24" t="s">
+      <c r="U153" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V153" s="23" t="s">
         <v>446</v>
       </c>
-      <c r="W153" s="24" t="s">
+      <c r="W153" s="23" t="s">
         <v>440</v>
       </c>
-      <c r="X153" s="24" t="s">
+      <c r="X153" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -8109,16 +8106,16 @@
       </c>
     </row>
     <row r="155" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U155" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V155" s="24" t="s">
+      <c r="U155" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V155" s="23" t="s">
         <v>448</v>
       </c>
-      <c r="W155" s="24" t="s">
+      <c r="W155" s="23" t="s">
         <v>440</v>
       </c>
-      <c r="X155" s="24" t="s">
+      <c r="X155" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -8137,16 +8134,16 @@
       </c>
     </row>
     <row r="157" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U157" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V157" s="24" t="s">
+      <c r="U157" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V157" s="23" t="s">
         <v>450</v>
       </c>
-      <c r="W157" s="24" t="s">
+      <c r="W157" s="23" t="s">
         <v>440</v>
       </c>
-      <c r="X157" s="24" t="s">
+      <c r="X157" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -8165,16 +8162,16 @@
       </c>
     </row>
     <row r="159" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U159" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V159" s="24" t="s">
+      <c r="U159" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V159" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="W159" s="24" t="s">
+      <c r="W159" s="23" t="s">
         <v>440</v>
       </c>
-      <c r="X159" s="24" t="s">
+      <c r="X159" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -8193,16 +8190,16 @@
       </c>
     </row>
     <row r="161" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U161" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V161" s="24" t="s">
+      <c r="U161" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V161" s="23" t="s">
         <v>455</v>
       </c>
-      <c r="W161" s="24" t="s">
+      <c r="W161" s="23" t="s">
         <v>454</v>
       </c>
-      <c r="X161" s="24" t="s">
+      <c r="X161" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -8221,16 +8218,16 @@
       </c>
     </row>
     <row r="163" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U163" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V163" s="24" t="s">
+      <c r="U163" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V163" s="23" t="s">
         <v>457</v>
       </c>
-      <c r="W163" s="24" t="s">
+      <c r="W163" s="23" t="s">
         <v>454</v>
       </c>
-      <c r="X163" s="24" t="s">
+      <c r="X163" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -8249,16 +8246,16 @@
       </c>
     </row>
     <row r="165" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U165" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V165" s="24" t="s">
+      <c r="U165" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V165" s="23" t="s">
         <v>459</v>
       </c>
-      <c r="W165" s="24" t="s">
+      <c r="W165" s="23" t="s">
         <v>454</v>
       </c>
-      <c r="X165" s="24" t="s">
+      <c r="X165" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -8277,16 +8274,16 @@
       </c>
     </row>
     <row r="167" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U167" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V167" s="24" t="s">
+      <c r="U167" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V167" s="23" t="s">
         <v>461</v>
       </c>
-      <c r="W167" s="24" t="s">
+      <c r="W167" s="23" t="s">
         <v>454</v>
       </c>
-      <c r="X167" s="24" t="s">
+      <c r="X167" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -8305,16 +8302,16 @@
       </c>
     </row>
     <row r="169" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U169" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V169" s="24" t="s">
+      <c r="U169" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V169" s="23" t="s">
         <v>463</v>
       </c>
-      <c r="W169" s="24" t="s">
+      <c r="W169" s="23" t="s">
         <v>454</v>
       </c>
-      <c r="X169" s="24" t="s">
+      <c r="X169" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -8333,16 +8330,16 @@
       </c>
     </row>
     <row r="171" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U171" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V171" s="24" t="s">
+      <c r="U171" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V171" s="23" t="s">
         <v>465</v>
       </c>
-      <c r="W171" s="24" t="s">
+      <c r="W171" s="23" t="s">
         <v>454</v>
       </c>
-      <c r="X171" s="24" t="s">
+      <c r="X171" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -8361,16 +8358,16 @@
       </c>
     </row>
     <row r="173" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U173" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V173" s="24" t="s">
+      <c r="U173" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V173" s="23" t="s">
         <v>467</v>
       </c>
-      <c r="W173" s="24" t="s">
+      <c r="W173" s="23" t="s">
         <v>468</v>
       </c>
-      <c r="X173" s="24" t="s">
+      <c r="X173" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -8389,16 +8386,16 @@
       </c>
     </row>
     <row r="175" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U175" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V175" s="24" t="s">
+      <c r="U175" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V175" s="23" t="s">
         <v>470</v>
       </c>
-      <c r="W175" s="24" t="s">
+      <c r="W175" s="23" t="s">
         <v>468</v>
       </c>
-      <c r="X175" s="24" t="s">
+      <c r="X175" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -8417,16 +8414,16 @@
       </c>
     </row>
     <row r="177" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U177" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V177" s="24" t="s">
+      <c r="U177" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V177" s="23" t="s">
         <v>472</v>
       </c>
-      <c r="W177" s="24" t="s">
+      <c r="W177" s="23" t="s">
         <v>468</v>
       </c>
-      <c r="X177" s="24" t="s">
+      <c r="X177" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -8445,16 +8442,16 @@
       </c>
     </row>
     <row r="179" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U179" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V179" s="24" t="s">
+      <c r="U179" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V179" s="23" t="s">
         <v>474</v>
       </c>
-      <c r="W179" s="24" t="s">
+      <c r="W179" s="23" t="s">
         <v>468</v>
       </c>
-      <c r="X179" s="24" t="s">
+      <c r="X179" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -8473,16 +8470,16 @@
       </c>
     </row>
     <row r="181" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U181" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V181" s="24" t="s">
+      <c r="U181" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V181" s="23" t="s">
         <v>476</v>
       </c>
-      <c r="W181" s="24" t="s">
+      <c r="W181" s="23" t="s">
         <v>468</v>
       </c>
-      <c r="X181" s="24" t="s">
+      <c r="X181" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -8501,16 +8498,16 @@
       </c>
     </row>
     <row r="183" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U183" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V183" s="24" t="s">
+      <c r="U183" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V183" s="23" t="s">
         <v>478</v>
       </c>
-      <c r="W183" s="24" t="s">
+      <c r="W183" s="23" t="s">
         <v>468</v>
       </c>
-      <c r="X183" s="24" t="s">
+      <c r="X183" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -8529,16 +8526,16 @@
       </c>
     </row>
     <row r="185" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U185" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V185" s="24" t="s">
+      <c r="U185" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V185" s="23" t="s">
         <v>480</v>
       </c>
-      <c r="W185" s="24" t="s">
+      <c r="W185" s="23" t="s">
         <v>468</v>
       </c>
-      <c r="X185" s="24" t="s">
+      <c r="X185" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -8557,16 +8554,16 @@
       </c>
     </row>
     <row r="187" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U187" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V187" s="24" t="s">
+      <c r="U187" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V187" s="23" t="s">
         <v>483</v>
       </c>
-      <c r="W187" s="24" t="s">
+      <c r="W187" s="23" t="s">
         <v>482</v>
       </c>
-      <c r="X187" s="24" t="s">
+      <c r="X187" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -8585,16 +8582,16 @@
       </c>
     </row>
     <row r="189" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U189" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V189" s="24" t="s">
+      <c r="U189" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V189" s="23" t="s">
         <v>485</v>
       </c>
-      <c r="W189" s="24" t="s">
+      <c r="W189" s="23" t="s">
         <v>482</v>
       </c>
-      <c r="X189" s="24" t="s">
+      <c r="X189" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -8613,16 +8610,16 @@
       </c>
     </row>
     <row r="191" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U191" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V191" s="24" t="s">
+      <c r="U191" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V191" s="23" t="s">
         <v>487</v>
       </c>
-      <c r="W191" s="24" t="s">
+      <c r="W191" s="23" t="s">
         <v>482</v>
       </c>
-      <c r="X191" s="24" t="s">
+      <c r="X191" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -8641,16 +8638,16 @@
       </c>
     </row>
     <row r="193" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U193" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V193" s="24" t="s">
+      <c r="U193" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V193" s="23" t="s">
         <v>489</v>
       </c>
-      <c r="W193" s="24" t="s">
+      <c r="W193" s="23" t="s">
         <v>482</v>
       </c>
-      <c r="X193" s="24" t="s">
+      <c r="X193" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -8669,16 +8666,16 @@
       </c>
     </row>
     <row r="195" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U195" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V195" s="24" t="s">
+      <c r="U195" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V195" s="23" t="s">
         <v>491</v>
       </c>
-      <c r="W195" s="24" t="s">
+      <c r="W195" s="23" t="s">
         <v>482</v>
       </c>
-      <c r="X195" s="24" t="s">
+      <c r="X195" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -8697,16 +8694,16 @@
       </c>
     </row>
     <row r="197" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U197" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V197" s="24" t="s">
+      <c r="U197" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V197" s="23" t="s">
         <v>493</v>
       </c>
-      <c r="W197" s="24" t="s">
+      <c r="W197" s="23" t="s">
         <v>482</v>
       </c>
-      <c r="X197" s="24" t="s">
+      <c r="X197" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -8725,16 +8722,16 @@
       </c>
     </row>
     <row r="199" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U199" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V199" s="24" t="s">
+      <c r="U199" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V199" s="23" t="s">
         <v>495</v>
       </c>
-      <c r="W199" s="24" t="s">
+      <c r="W199" s="23" t="s">
         <v>496</v>
       </c>
-      <c r="X199" s="24" t="s">
+      <c r="X199" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -8753,16 +8750,16 @@
       </c>
     </row>
     <row r="201" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U201" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V201" s="24" t="s">
+      <c r="U201" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V201" s="23" t="s">
         <v>498</v>
       </c>
-      <c r="W201" s="24" t="s">
+      <c r="W201" s="23" t="s">
         <v>496</v>
       </c>
-      <c r="X201" s="24" t="s">
+      <c r="X201" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -8781,16 +8778,16 @@
       </c>
     </row>
     <row r="203" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U203" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V203" s="24" t="s">
+      <c r="U203" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V203" s="23" t="s">
         <v>500</v>
       </c>
-      <c r="W203" s="24" t="s">
+      <c r="W203" s="23" t="s">
         <v>496</v>
       </c>
-      <c r="X203" s="24" t="s">
+      <c r="X203" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -8809,16 +8806,16 @@
       </c>
     </row>
     <row r="205" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U205" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V205" s="24" t="s">
+      <c r="U205" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V205" s="23" t="s">
         <v>502</v>
       </c>
-      <c r="W205" s="24" t="s">
+      <c r="W205" s="23" t="s">
         <v>496</v>
       </c>
-      <c r="X205" s="24" t="s">
+      <c r="X205" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -8837,16 +8834,16 @@
       </c>
     </row>
     <row r="207" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U207" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V207" s="24" t="s">
+      <c r="U207" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V207" s="23" t="s">
         <v>504</v>
       </c>
-      <c r="W207" s="24" t="s">
+      <c r="W207" s="23" t="s">
         <v>496</v>
       </c>
-      <c r="X207" s="24" t="s">
+      <c r="X207" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -8865,16 +8862,16 @@
       </c>
     </row>
     <row r="209" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U209" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V209" s="24" t="s">
+      <c r="U209" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V209" s="23" t="s">
         <v>506</v>
       </c>
-      <c r="W209" s="24" t="s">
+      <c r="W209" s="23" t="s">
         <v>496</v>
       </c>
-      <c r="X209" s="24" t="s">
+      <c r="X209" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -8893,16 +8890,16 @@
       </c>
     </row>
     <row r="211" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U211" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V211" s="24" t="s">
+      <c r="U211" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V211" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="W211" s="24" t="s">
+      <c r="W211" s="23" t="s">
         <v>496</v>
       </c>
-      <c r="X211" s="24" t="s">
+      <c r="X211" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -8921,16 +8918,16 @@
       </c>
     </row>
     <row r="213" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U213" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V213" s="24" t="s">
+      <c r="U213" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V213" s="23" t="s">
         <v>511</v>
       </c>
-      <c r="W213" s="24" t="s">
+      <c r="W213" s="23" t="s">
         <v>510</v>
       </c>
-      <c r="X213" s="24" t="s">
+      <c r="X213" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -8949,16 +8946,16 @@
       </c>
     </row>
     <row r="215" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U215" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V215" s="24" t="s">
+      <c r="U215" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V215" s="23" t="s">
         <v>513</v>
       </c>
-      <c r="W215" s="24" t="s">
+      <c r="W215" s="23" t="s">
         <v>510</v>
       </c>
-      <c r="X215" s="24" t="s">
+      <c r="X215" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -8977,16 +8974,16 @@
       </c>
     </row>
     <row r="217" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U217" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V217" s="24" t="s">
+      <c r="U217" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V217" s="23" t="s">
         <v>515</v>
       </c>
-      <c r="W217" s="24" t="s">
+      <c r="W217" s="23" t="s">
         <v>510</v>
       </c>
-      <c r="X217" s="24" t="s">
+      <c r="X217" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -9005,16 +9002,16 @@
       </c>
     </row>
     <row r="219" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U219" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V219" s="24" t="s">
+      <c r="U219" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V219" s="23" t="s">
         <v>517</v>
       </c>
-      <c r="W219" s="24" t="s">
+      <c r="W219" s="23" t="s">
         <v>510</v>
       </c>
-      <c r="X219" s="24" t="s">
+      <c r="X219" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -9033,16 +9030,16 @@
       </c>
     </row>
     <row r="221" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U221" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V221" s="24" t="s">
+      <c r="U221" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V221" s="23" t="s">
         <v>519</v>
       </c>
-      <c r="W221" s="24" t="s">
+      <c r="W221" s="23" t="s">
         <v>510</v>
       </c>
-      <c r="X221" s="24" t="s">
+      <c r="X221" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -9061,16 +9058,16 @@
       </c>
     </row>
     <row r="223" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U223" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V223" s="24" t="s">
+      <c r="U223" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V223" s="23" t="s">
         <v>521</v>
       </c>
-      <c r="W223" s="24" t="s">
+      <c r="W223" s="23" t="s">
         <v>510</v>
       </c>
-      <c r="X223" s="24" t="s">
+      <c r="X223" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -9089,16 +9086,16 @@
       </c>
     </row>
     <row r="225" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U225" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V225" s="24" t="s">
+      <c r="U225" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V225" s="23" t="s">
         <v>523</v>
       </c>
-      <c r="W225" s="24" t="s">
+      <c r="W225" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="X225" s="24" t="s">
+      <c r="X225" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -9117,16 +9114,16 @@
       </c>
     </row>
     <row r="227" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U227" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V227" s="24" t="s">
+      <c r="U227" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V227" s="23" t="s">
         <v>523</v>
       </c>
-      <c r="W227" s="24" t="s">
+      <c r="W227" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="X227" s="24" t="s">
+      <c r="X227" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -9145,16 +9142,16 @@
       </c>
     </row>
     <row r="229" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U229" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V229" s="24" t="s">
+      <c r="U229" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V229" s="23" t="s">
         <v>524</v>
       </c>
-      <c r="W229" s="24" t="s">
+      <c r="W229" s="23" t="s">
         <v>356</v>
       </c>
-      <c r="X229" s="24" t="s">
+      <c r="X229" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -9173,16 +9170,16 @@
       </c>
     </row>
     <row r="231" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U231" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V231" s="24" t="s">
+      <c r="U231" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V231" s="23" t="s">
         <v>525</v>
       </c>
-      <c r="W231" s="24" t="s">
+      <c r="W231" s="23" t="s">
         <v>370</v>
       </c>
-      <c r="X231" s="24" t="s">
+      <c r="X231" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -9201,16 +9198,16 @@
       </c>
     </row>
     <row r="233" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U233" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V233" s="24" t="s">
+      <c r="U233" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V233" s="23" t="s">
         <v>525</v>
       </c>
-      <c r="W233" s="24" t="s">
+      <c r="W233" s="23" t="s">
         <v>370</v>
       </c>
-      <c r="X233" s="24" t="s">
+      <c r="X233" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -9229,16 +9226,16 @@
       </c>
     </row>
     <row r="235" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U235" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V235" s="24" t="s">
+      <c r="U235" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V235" s="23" t="s">
         <v>526</v>
       </c>
-      <c r="W235" s="24" t="s">
+      <c r="W235" s="23" t="s">
         <v>468</v>
       </c>
-      <c r="X235" s="24" t="s">
+      <c r="X235" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -9257,16 +9254,16 @@
       </c>
     </row>
     <row r="237" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U237" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V237" s="24" t="s">
+      <c r="U237" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V237" s="23" t="s">
         <v>527</v>
       </c>
-      <c r="W237" s="24" t="s">
+      <c r="W237" s="23" t="s">
         <v>454</v>
       </c>
-      <c r="X237" s="24" t="s">
+      <c r="X237" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -9285,16 +9282,16 @@
       </c>
     </row>
     <row r="239" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U239" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V239" s="24" t="s">
+      <c r="U239" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V239" s="23" t="s">
         <v>527</v>
       </c>
-      <c r="W239" s="24" t="s">
+      <c r="W239" s="23" t="s">
         <v>454</v>
       </c>
-      <c r="X239" s="24" t="s">
+      <c r="X239" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -9313,16 +9310,16 @@
       </c>
     </row>
     <row r="241" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U241" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V241" s="24" t="s">
+      <c r="U241" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V241" s="23" t="s">
         <v>528</v>
       </c>
-      <c r="W241" s="24" t="s">
+      <c r="W241" s="23" t="s">
         <v>398</v>
       </c>
-      <c r="X241" s="24" t="s">
+      <c r="X241" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -9341,16 +9338,16 @@
       </c>
     </row>
     <row r="243" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U243" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V243" s="24" t="s">
+      <c r="U243" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V243" s="23" t="s">
         <v>529</v>
       </c>
-      <c r="W243" s="24" t="s">
+      <c r="W243" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="X243" s="24" t="s">
+      <c r="X243" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -9369,16 +9366,16 @@
       </c>
     </row>
     <row r="245" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U245" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V245" s="24" t="s">
+      <c r="U245" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V245" s="23" t="s">
         <v>529</v>
       </c>
-      <c r="W245" s="24" t="s">
+      <c r="W245" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="X245" s="24" t="s">
+      <c r="X245" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -9397,16 +9394,16 @@
       </c>
     </row>
     <row r="247" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U247" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V247" s="24" t="s">
+      <c r="U247" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V247" s="23" t="s">
         <v>530</v>
       </c>
-      <c r="W247" s="24" t="s">
+      <c r="W247" s="23" t="s">
         <v>426</v>
       </c>
-      <c r="X247" s="24" t="s">
+      <c r="X247" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -9425,16 +9422,16 @@
       </c>
     </row>
     <row r="249" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U249" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V249" s="24" t="s">
+      <c r="U249" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V249" s="23" t="s">
         <v>531</v>
       </c>
-      <c r="W249" s="24" t="s">
+      <c r="W249" s="23" t="s">
         <v>482</v>
       </c>
-      <c r="X249" s="24" t="s">
+      <c r="X249" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -9453,16 +9450,16 @@
       </c>
     </row>
     <row r="251" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U251" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V251" s="24" t="s">
+      <c r="U251" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V251" s="23" t="s">
         <v>531</v>
       </c>
-      <c r="W251" s="24" t="s">
+      <c r="W251" s="23" t="s">
         <v>482</v>
       </c>
-      <c r="X251" s="24" t="s">
+      <c r="X251" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -9481,16 +9478,16 @@
       </c>
     </row>
     <row r="253" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U253" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V253" s="24" t="s">
+      <c r="U253" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V253" s="23" t="s">
         <v>532</v>
       </c>
-      <c r="W253" s="24" t="s">
+      <c r="W253" s="23" t="s">
         <v>342</v>
       </c>
-      <c r="X253" s="24" t="s">
+      <c r="X253" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -9509,16 +9506,16 @@
       </c>
     </row>
     <row r="255" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U255" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V255" s="24" t="s">
+      <c r="U255" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V255" s="23" t="s">
         <v>533</v>
       </c>
-      <c r="W255" s="24" t="s">
+      <c r="W255" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="X255" s="24" t="s">
+      <c r="X255" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -9537,16 +9534,16 @@
       </c>
     </row>
     <row r="257" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U257" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V257" s="24" t="s">
+      <c r="U257" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V257" s="23" t="s">
         <v>535</v>
       </c>
-      <c r="W257" s="24" t="s">
+      <c r="W257" s="23" t="s">
         <v>300</v>
       </c>
-      <c r="X257" s="24" t="s">
+      <c r="X257" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -9565,16 +9562,16 @@
       </c>
     </row>
     <row r="259" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U259" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V259" s="24" t="s">
+      <c r="U259" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V259" s="23" t="s">
         <v>537</v>
       </c>
-      <c r="W259" s="24" t="s">
+      <c r="W259" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="X259" s="24" t="s">
+      <c r="X259" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -9593,16 +9590,16 @@
       </c>
     </row>
     <row r="261" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U261" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V261" s="24" t="s">
+      <c r="U261" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V261" s="23" t="s">
         <v>539</v>
       </c>
-      <c r="W261" s="24" t="s">
+      <c r="W261" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="X261" s="24" t="s">
+      <c r="X261" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -9621,16 +9618,16 @@
       </c>
     </row>
     <row r="263" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U263" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V263" s="24" t="s">
+      <c r="U263" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V263" s="23" t="s">
         <v>541</v>
       </c>
-      <c r="W263" s="24" t="s">
+      <c r="W263" s="23" t="s">
         <v>342</v>
       </c>
-      <c r="X263" s="24" t="s">
+      <c r="X263" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -9649,16 +9646,16 @@
       </c>
     </row>
     <row r="265" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U265" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V265" s="24" t="s">
+      <c r="U265" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V265" s="23" t="s">
         <v>543</v>
       </c>
-      <c r="W265" s="24" t="s">
+      <c r="W265" s="23" t="s">
         <v>356</v>
       </c>
-      <c r="X265" s="24" t="s">
+      <c r="X265" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -9677,16 +9674,16 @@
       </c>
     </row>
     <row r="267" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U267" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V267" s="24" t="s">
+      <c r="U267" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V267" s="23" t="s">
         <v>545</v>
       </c>
-      <c r="W267" s="24" t="s">
+      <c r="W267" s="23" t="s">
         <v>370</v>
       </c>
-      <c r="X267" s="24" t="s">
+      <c r="X267" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -9705,16 +9702,16 @@
       </c>
     </row>
     <row r="269" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U269" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V269" s="24" t="s">
+      <c r="U269" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V269" s="23" t="s">
         <v>547</v>
       </c>
-      <c r="W269" s="24" t="s">
+      <c r="W269" s="23" t="s">
         <v>384</v>
       </c>
-      <c r="X269" s="24" t="s">
+      <c r="X269" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -9733,16 +9730,16 @@
       </c>
     </row>
     <row r="271" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U271" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V271" s="24" t="s">
+      <c r="U271" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V271" s="23" t="s">
         <v>549</v>
       </c>
-      <c r="W271" s="24" t="s">
+      <c r="W271" s="23" t="s">
         <v>398</v>
       </c>
-      <c r="X271" s="24" t="s">
+      <c r="X271" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -9761,16 +9758,16 @@
       </c>
     </row>
     <row r="273" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U273" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V273" s="24" t="s">
+      <c r="U273" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V273" s="23" t="s">
         <v>551</v>
       </c>
-      <c r="W273" s="24" t="s">
+      <c r="W273" s="23" t="s">
         <v>412</v>
       </c>
-      <c r="X273" s="24" t="s">
+      <c r="X273" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -9789,16 +9786,16 @@
       </c>
     </row>
     <row r="275" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U275" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V275" s="24" t="s">
+      <c r="U275" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V275" s="23" t="s">
         <v>553</v>
       </c>
-      <c r="W275" s="24" t="s">
+      <c r="W275" s="23" t="s">
         <v>426</v>
       </c>
-      <c r="X275" s="24" t="s">
+      <c r="X275" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -9817,16 +9814,16 @@
       </c>
     </row>
     <row r="277" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U277" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V277" s="24" t="s">
+      <c r="U277" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V277" s="23" t="s">
         <v>555</v>
       </c>
-      <c r="W277" s="24" t="s">
+      <c r="W277" s="23" t="s">
         <v>440</v>
       </c>
-      <c r="X277" s="24" t="s">
+      <c r="X277" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -9845,16 +9842,16 @@
       </c>
     </row>
     <row r="279" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U279" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V279" s="24" t="s">
+      <c r="U279" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V279" s="23" t="s">
         <v>557</v>
       </c>
-      <c r="W279" s="24" t="s">
+      <c r="W279" s="23" t="s">
         <v>454</v>
       </c>
-      <c r="X279" s="24" t="s">
+      <c r="X279" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -9873,16 +9870,16 @@
       </c>
     </row>
     <row r="281" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U281" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V281" s="24" t="s">
+      <c r="U281" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V281" s="23" t="s">
         <v>559</v>
       </c>
-      <c r="W281" s="24" t="s">
+      <c r="W281" s="23" t="s">
         <v>468</v>
       </c>
-      <c r="X281" s="24" t="s">
+      <c r="X281" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -9901,16 +9898,16 @@
       </c>
     </row>
     <row r="283" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U283" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V283" s="24" t="s">
+      <c r="U283" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V283" s="23" t="s">
         <v>561</v>
       </c>
-      <c r="W283" s="24" t="s">
+      <c r="W283" s="23" t="s">
         <v>482</v>
       </c>
-      <c r="X283" s="24" t="s">
+      <c r="X283" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -9929,16 +9926,16 @@
       </c>
     </row>
     <row r="285" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U285" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V285" s="24" t="s">
+      <c r="U285" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V285" s="23" t="s">
         <v>563</v>
       </c>
-      <c r="W285" s="24" t="s">
+      <c r="W285" s="23" t="s">
         <v>496</v>
       </c>
-      <c r="X285" s="24" t="s">
+      <c r="X285" s="23" t="s">
         <v>286</v>
       </c>
     </row>
@@ -9957,16 +9954,16 @@
       </c>
     </row>
     <row r="287" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U287" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="V287" s="24" t="s">
+      <c r="U287" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V287" s="23" t="s">
         <v>565</v>
       </c>
-      <c r="W287" s="24" t="s">
+      <c r="W287" s="23" t="s">
         <v>510</v>
       </c>
-      <c r="X287" s="24" t="s">
+      <c r="X287" s="23" t="s">
         <v>286</v>
       </c>
     </row>
